--- a/Results/CompatationList_YG.xlsx
+++ b/Results/CompatationList_YG.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Neurolab\Ischemia YG\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Neurolab\ialdev\Ischemia YG\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="222">
   <si>
     <t>type</t>
   </si>
@@ -643,6 +643,78 @@
   </si>
   <si>
     <t>True</t>
+  </si>
+  <si>
+    <t>270519_P8_slc2</t>
+  </si>
+  <si>
+    <t>270519_P8_slc1</t>
+  </si>
+  <si>
+    <t>\\IFMB-02-024B-10\Ischemia2\OOS\2019-05-27\2019-05-27_15-19-23.oos</t>
+  </si>
+  <si>
+    <t>\\IFMB-02-024B-10\Ischemia2\OOS\2019-05-27\2019-05-27_13-39-7.oos</t>
+  </si>
+  <si>
+    <t>\\IFMB-02-024B-10\Ischemia2\OOS\2019-05-28\2019-05-28_10-19-34.oos</t>
+  </si>
+  <si>
+    <t>\\IFMB-02-024B-10\Ischemia2\OOS\2019-05-28\2019-05-28_12-6-48.oos</t>
+  </si>
+  <si>
+    <t>280519_P8_slc1</t>
+  </si>
+  <si>
+    <t>280519_P8_slc2</t>
+  </si>
+  <si>
+    <t>\\IFMB-02-024B-10\Ischemia2\OOS\2019-05-29\2019-05-29_13-47-36.oos</t>
+  </si>
+  <si>
+    <t>\\IFMB-02-024B-10\Ischemia2\OOS\2019-05-29\2019-05-29_15-34-5.oos</t>
+  </si>
+  <si>
+    <t>\\IFMB-02-024B-10\Ischemia2\OOS\2019-05-29\2019-05-29_11-17-24.oos</t>
+  </si>
+  <si>
+    <t>290519_P8_slc1</t>
+  </si>
+  <si>
+    <t>290519_P8_slc2</t>
+  </si>
+  <si>
+    <t>290519_P8_slc3</t>
+  </si>
+  <si>
+    <t>less-invasive</t>
+  </si>
+  <si>
+    <t>ttc photo file</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>\\ED02\Data_Marat\Ischemia\TTC Elvira\270519_P8\slice1.tif</t>
+  </si>
+  <si>
+    <t>\\ED02\Data_Marat\Ischemia\TTC Elvira\270519_P8\slice2.tif</t>
+  </si>
+  <si>
+    <t>\\ED02\Data_Marat\Ischemia\TTC Elvira\280519_P8\slice2.tif</t>
+  </si>
+  <si>
+    <t>\\ED02\Data_Marat\Ischemia\TTC Elvira\280519_P8\slice1.tif</t>
+  </si>
+  <si>
+    <t>\\ED02\Data_Marat\Ischemia\TTC Elvira\290519_P8\slice1.tif</t>
+  </si>
+  <si>
+    <t>\\ED02\Data_Marat\Ischemia\TTC Elvira\290519_P8\slice2.tif</t>
+  </si>
+  <si>
+    <t>\\ED02\Data_Marat\Ischemia\TTC Elvira\290519_P8\slice3.tif</t>
   </si>
 </sst>
 </file>
@@ -652,7 +724,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -731,6 +803,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="23">
@@ -933,7 +1011,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -995,24 +1073,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1043,21 +1103,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1091,9 +1142,6 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1165,6 +1213,97 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="5" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1175,13 +1314,12 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Хороший" xfId="1" builtinId="26"/>
   </cellStyles>
-  <dxfs count="35">
+  <dxfs count="38">
     <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color theme="1"/>
@@ -1191,7 +1329,25 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor auto="1"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1209,24 +1365,10 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1239,139 +1381,29 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="164" formatCode="0.0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
+        <b/>
+        <i val="0"/>
       </font>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="7" tint="0.79998168889431442"/>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
+        <b val="0"/>
+        <i val="0"/>
       </font>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="7" tint="0.79998168889431442"/>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1557,6 +1589,12 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1599,12 +1637,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1617,120 +1649,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="164" formatCode="0.0"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1795,6 +1714,151 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -1803,8 +1867,129 @@
       </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="2" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="5"/>
+      <tableStyleElement type="headerRow" dxfId="4"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1920,10 +2105,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист1!$C$4:$C$53</c:f>
+              <c:f>Лист1!$C$4:$C$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="55"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -2073,16 +2258,31 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$M$4:$M$53</c:f>
+              <c:f>Лист1!$M$4:$M$58</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="55"/>
                 <c:pt idx="0">
                   <c:v>46.94</c:v>
                 </c:pt>
@@ -2246,11 +2446,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="527466064"/>
-        <c:axId val="527461752"/>
+        <c:axId val="360068856"/>
+        <c:axId val="360073560"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="527466064"/>
+        <c:axId val="360068856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2363,12 +2563,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="527461752"/>
+        <c:crossAx val="360073560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="527461752"/>
+        <c:axId val="360073560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2425,7 +2625,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="527466064"/>
+        <c:crossAx val="360068856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3036,13 +3236,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>87086</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>272145</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>511628</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>283029</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3066,8 +3266,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A3:U53" totalsRowShown="0" headerRowDxfId="23" dataDxfId="24">
-  <autoFilter ref="A3:U53">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A3:V60" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36">
+  <autoFilter ref="A3:V60">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -3090,47 +3290,48 @@
     <filterColumn colId="19" hiddenButton="1"/>
     <filterColumn colId="20" hiddenButton="1"/>
   </autoFilter>
-  <tableColumns count="21">
-    <tableColumn id="1" name="id" dataDxfId="2"/>
-    <tableColumn id="2" name="name" dataDxfId="0"/>
-    <tableColumn id="3" name="age" dataDxfId="1"/>
-    <tableColumn id="4" name="type" dataDxfId="25" dataCellStyle="40% — акцент5"/>
-    <tableColumn id="15" name="holder" dataDxfId="34" dataCellStyle="40% — акцент5"/>
-    <tableColumn id="7" name="OIS type" dataDxfId="9"/>
-    <tableColumn id="12" name="cell data avaliable" dataDxfId="10"/>
-    <tableColumn id="18" name="cell steps enable" dataDxfId="8"/>
-    <tableColumn id="13" name="LFP data avaliable" dataDxfId="7"/>
-    <tableColumn id="19" name="LFP stimuli enable" dataDxfId="6"/>
-    <tableColumn id="20" name="tissue resistance avaliable" dataDxfId="5"/>
-    <tableColumn id="14" name="synchronized steps and stimuli" dataDxfId="4"/>
-    <tableColumn id="10" name="OGD length, minutes" dataDxfId="3">
+  <tableColumns count="22">
+    <tableColumn id="1" name="id" dataDxfId="35"/>
+    <tableColumn id="2" name="name" dataDxfId="34"/>
+    <tableColumn id="3" name="age" dataDxfId="33"/>
+    <tableColumn id="4" name="type" dataDxfId="32" dataCellStyle="40% — акцент5"/>
+    <tableColumn id="15" name="holder" dataDxfId="31" dataCellStyle="40% — акцент5"/>
+    <tableColumn id="7" name="OIS type" dataDxfId="30"/>
+    <tableColumn id="12" name="cell data avaliable" dataDxfId="29"/>
+    <tableColumn id="18" name="cell steps enable" dataDxfId="28"/>
+    <tableColumn id="13" name="LFP data avaliable" dataDxfId="27"/>
+    <tableColumn id="19" name="LFP stimuli enable" dataDxfId="26"/>
+    <tableColumn id="20" name="tissue resistance avaliable" dataDxfId="25"/>
+    <tableColumn id="14" name="synchronized steps and stimuli" dataDxfId="24"/>
+    <tableColumn id="10" name="OGD length, minutes" dataDxfId="23">
       <calculatedColumnFormula>Таблица1[[#This Row],[wash time]]-Таблица1[[#This Row],[OGD time]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" name="AD delay" dataDxfId="33">
+    <tableColumn id="21" name="AD delay" dataDxfId="22">
       <calculatedColumnFormula>Таблица1[[#This Row],[AD time]]-Таблица1[[#This Row],[OGD time]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="OGD time" dataDxfId="32"/>
-    <tableColumn id="9" name="wash time" dataDxfId="31"/>
-    <tableColumn id="16" name="AD time" dataDxfId="30"/>
-    <tableColumn id="17" name="SD time" dataDxfId="26"/>
-    <tableColumn id="5" name="abf data file" dataDxfId="29"/>
-    <tableColumn id="6" name="OIS data file" dataDxfId="28"/>
-    <tableColumn id="11" name="wash length, minutes" dataDxfId="27"/>
+    <tableColumn id="8" name="OGD time" dataDxfId="21"/>
+    <tableColumn id="9" name="wash time" dataDxfId="20"/>
+    <tableColumn id="16" name="AD time" dataDxfId="19"/>
+    <tableColumn id="17" name="SD time" dataDxfId="18"/>
+    <tableColumn id="5" name="abf data file" dataDxfId="2"/>
+    <tableColumn id="6" name="OIS data file" dataDxfId="0"/>
+    <tableColumn id="11" name="ttc photo file" dataDxfId="1"/>
+    <tableColumn id="22" name="wash length, minutes" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="B56:C63" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
-  <autoFilter ref="B56:C63">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="B75:C82" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+  <autoFilter ref="B75:C82">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" name="Days after birth (P…)" dataDxfId="22"/>
-    <tableColumn id="2" name="number" dataDxfId="21">
-      <calculatedColumnFormula>COUNTIF(Таблица1[age],B57)</calculatedColumnFormula>
+    <tableColumn id="1" name="Days after birth (P…)" dataDxfId="15"/>
+    <tableColumn id="2" name="number" dataDxfId="14">
+      <calculatedColumnFormula>COUNTIF(Таблица1[age],B76)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3138,28 +3339,28 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Таблица3" displayName="Таблица3" ref="B65:C68" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
-  <autoFilter ref="B65:C68">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Таблица3" displayName="Таблица3" ref="B84:C87" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+  <autoFilter ref="B84:C87">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" name="type of experiment" dataDxfId="18"/>
-    <tableColumn id="2" name="number" dataDxfId="17"/>
+    <tableColumn id="1" name="type of experiment" dataDxfId="11"/>
+    <tableColumn id="2" name="number" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Таблица6" displayName="Таблица6" ref="B70:C72" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
-  <autoFilter ref="B70:C72">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Таблица6" displayName="Таблица6" ref="B89:C91" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="B89:C91">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" name="type of slice holder" dataDxfId="14"/>
-    <tableColumn id="2" name="number" dataDxfId="13">
+    <tableColumn id="1" name="type of slice holder" dataDxfId="7"/>
+    <tableColumn id="2" name="number" dataDxfId="6">
       <calculatedColumnFormula>COUNTIF(Таблица1[[#All],[holder]], Таблица6[[#This Row],[type of slice holder]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3430,10 +3631,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U72"/>
+  <dimension ref="A1:W96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:L72"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3451,120 +3652,124 @@
     <col min="12" max="12" width="9.33203125" style="14" customWidth="1"/>
     <col min="13" max="13" width="10.5546875" style="14" customWidth="1"/>
     <col min="14" max="14" width="10.77734375" style="16" customWidth="1"/>
-    <col min="15" max="16" width="10.88671875" style="30" customWidth="1"/>
-    <col min="17" max="17" width="19.21875" style="30" customWidth="1"/>
-    <col min="18" max="18" width="11.88671875" style="30" customWidth="1"/>
-    <col min="19" max="19" width="14.33203125" style="31" customWidth="1"/>
+    <col min="15" max="16" width="10.88671875" style="24" customWidth="1"/>
+    <col min="17" max="17" width="19.21875" style="24" customWidth="1"/>
+    <col min="18" max="18" width="11.88671875" style="24" customWidth="1"/>
+    <col min="19" max="19" width="14.33203125" style="25" customWidth="1"/>
     <col min="20" max="20" width="16.44140625" style="14" customWidth="1"/>
-    <col min="21" max="21" width="11.109375" style="14" customWidth="1"/>
-    <col min="22" max="16384" width="8.88671875" style="14"/>
+    <col min="21" max="21" width="8.88671875" style="14"/>
+    <col min="22" max="22" width="11.109375" style="14" customWidth="1"/>
+    <col min="24" max="16384" width="8.88671875" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="66" t="s">
+    <row r="1" spans="1:22" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="56" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="49" customFormat="1" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="68" t="s">
+    <row r="3" spans="1:22" s="40" customFormat="1" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="69" t="s">
+      <c r="C3" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="70" t="s">
+      <c r="D3" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="71" t="s">
+      <c r="E3" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="72" t="s">
+      <c r="F3" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="73" t="s">
+      <c r="G3" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="73" t="s">
+      <c r="H3" s="63" t="s">
         <v>193</v>
       </c>
-      <c r="I3" s="73" t="s">
+      <c r="I3" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="J3" s="73" t="s">
+      <c r="J3" s="63" t="s">
         <v>194</v>
       </c>
-      <c r="K3" s="73" t="s">
+      <c r="K3" s="63" t="s">
         <v>195</v>
       </c>
-      <c r="L3" s="73" t="s">
+      <c r="L3" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="M3" s="56" t="s">
+      <c r="M3" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="56" t="s">
+      <c r="N3" s="46" t="s">
         <v>184</v>
       </c>
-      <c r="O3" s="56" t="s">
+      <c r="O3" s="46" t="s">
         <v>97</v>
       </c>
-      <c r="P3" s="56" t="s">
+      <c r="P3" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="56" t="s">
+      <c r="Q3" s="46" t="s">
         <v>98</v>
       </c>
-      <c r="R3" s="49" t="s">
+      <c r="R3" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="S3" s="57" t="s">
+      <c r="S3" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="T3" s="49" t="s">
+      <c r="T3" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="U3" s="49" t="s">
+      <c r="U3" s="40" t="s">
+        <v>213</v>
+      </c>
+      <c r="V3" s="40" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="13">
         <v>128</v>
       </c>
       <c r="B4" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="C4" s="51">
+      <c r="C4" s="42">
         <v>2</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="26" t="s">
         <v>188</v>
       </c>
       <c r="E4" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="54" t="s">
+      <c r="F4" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="G4" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="H4" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="I4" s="67" t="s">
-        <v>197</v>
-      </c>
-      <c r="J4" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="K4" s="67" t="s">
-        <v>197</v>
-      </c>
-      <c r="L4" s="29" t="s">
+      <c r="G4" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="H4" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="I4" s="57" t="s">
+        <v>197</v>
+      </c>
+      <c r="J4" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="K4" s="57" t="s">
+        <v>197</v>
+      </c>
+      <c r="L4" s="23" t="s">
         <v>196</v>
       </c>
       <c r="M4" s="20">
@@ -3581,53 +3786,56 @@
       <c r="P4" s="20">
         <v>57.47</v>
       </c>
-      <c r="Q4" s="30">
+      <c r="Q4" s="24">
         <v>57.47</v>
       </c>
-      <c r="R4" s="45"/>
-      <c r="S4" s="36" t="s">
+      <c r="R4" s="36"/>
+      <c r="S4" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="T4" s="21" t="s">
+      <c r="T4" s="84" t="s">
         <v>125</v>
       </c>
-      <c r="U4" s="13"/>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U4" s="81"/>
+      <c r="V4" s="81" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="13">
         <v>130</v>
       </c>
       <c r="B5" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="C5" s="51">
+      <c r="C5" s="42">
         <v>2</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="26" t="s">
         <v>188</v>
       </c>
       <c r="E5" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="54" t="s">
+      <c r="F5" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="G5" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="H5" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="I5" s="67" t="s">
-        <v>197</v>
-      </c>
-      <c r="J5" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="K5" s="67" t="s">
-        <v>197</v>
-      </c>
-      <c r="L5" s="29" t="s">
+      <c r="G5" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="H5" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="I5" s="57" t="s">
+        <v>197</v>
+      </c>
+      <c r="J5" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="K5" s="57" t="s">
+        <v>197</v>
+      </c>
+      <c r="L5" s="23" t="s">
         <v>196</v>
       </c>
       <c r="M5" s="20">
@@ -3644,53 +3852,56 @@
       <c r="P5" s="20">
         <v>45.92</v>
       </c>
-      <c r="Q5" s="30">
+      <c r="Q5" s="24">
         <v>45.92</v>
       </c>
-      <c r="R5" s="45"/>
-      <c r="S5" s="36" t="s">
+      <c r="R5" s="36"/>
+      <c r="S5" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="T5" s="21" t="s">
+      <c r="T5" s="84" t="s">
         <v>127</v>
       </c>
-      <c r="U5" s="13"/>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U5" s="81"/>
+      <c r="V5" s="81" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="13">
         <v>136</v>
       </c>
       <c r="B6" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="C6" s="51">
+      <c r="C6" s="42">
         <v>5</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="26" t="s">
         <v>188</v>
       </c>
       <c r="E6" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="54" t="s">
+      <c r="F6" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="G6" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="H6" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="I6" s="67" t="s">
-        <v>197</v>
-      </c>
-      <c r="J6" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="K6" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="L6" s="29" t="s">
+      <c r="G6" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="H6" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="I6" s="57" t="s">
+        <v>197</v>
+      </c>
+      <c r="J6" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="K6" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="L6" s="23" t="s">
         <v>196</v>
       </c>
       <c r="M6" s="20">
@@ -3707,1606 +3918,1709 @@
       <c r="P6" s="20">
         <v>61.4328</v>
       </c>
-      <c r="Q6" s="30">
+      <c r="Q6" s="24">
         <v>61.4328</v>
       </c>
-      <c r="R6" s="45"/>
-      <c r="S6" s="36" t="s">
+      <c r="R6" s="36"/>
+      <c r="S6" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="T6" s="21" t="s">
+      <c r="T6" s="84" t="s">
         <v>129</v>
       </c>
-      <c r="U6" s="13"/>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U6" s="81"/>
+      <c r="V6" s="81" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="13">
         <v>137</v>
       </c>
       <c r="B7" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="C7" s="28">
+      <c r="C7" s="22">
         <v>5</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="26" t="s">
         <v>188</v>
       </c>
       <c r="E7" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="54" t="s">
+      <c r="F7" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="G7" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="H7" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="I7" s="67" t="s">
-        <v>197</v>
-      </c>
-      <c r="J7" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="K7" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="L7" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="M7" s="30">
+      <c r="G7" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="H7" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="I7" s="57" t="s">
+        <v>197</v>
+      </c>
+      <c r="J7" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="K7" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="L7" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="M7" s="24">
         <f>Таблица1[[#This Row],[wash time]]-Таблица1[[#This Row],[OGD time]]</f>
         <v>37.8476</v>
       </c>
-      <c r="N7" s="30">
+      <c r="N7" s="24">
         <f>Таблица1[[#This Row],[AD time]]-Таблица1[[#This Row],[OGD time]]</f>
         <v>37.8476</v>
       </c>
-      <c r="O7" s="30">
+      <c r="O7" s="24">
         <v>10.5824</v>
       </c>
-      <c r="P7" s="30">
+      <c r="P7" s="24">
         <v>48.43</v>
       </c>
-      <c r="Q7" s="30">
+      <c r="Q7" s="24">
         <v>48.43</v>
       </c>
-      <c r="R7" s="45"/>
-      <c r="S7" s="36" t="s">
+      <c r="R7" s="36"/>
+      <c r="S7" s="30" t="s">
         <v>130</v>
       </c>
-      <c r="T7" s="21" t="s">
+      <c r="T7" s="84" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U7" s="81"/>
+      <c r="V7" s="81" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="13">
         <v>170</v>
       </c>
       <c r="B8" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="C8" s="28">
+      <c r="C8" s="22">
         <v>3</v>
       </c>
-      <c r="D8" s="32" t="s">
+      <c r="D8" s="26" t="s">
         <v>188</v>
       </c>
       <c r="E8" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="54" t="s">
+      <c r="F8" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="G8" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="H8" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="I8" s="67" t="s">
-        <v>197</v>
-      </c>
-      <c r="J8" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="K8" s="67" t="s">
-        <v>197</v>
-      </c>
-      <c r="L8" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="M8" s="30">
+      <c r="G8" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="H8" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="I8" s="57" t="s">
+        <v>197</v>
+      </c>
+      <c r="J8" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="K8" s="57" t="s">
+        <v>197</v>
+      </c>
+      <c r="L8" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="M8" s="24">
         <f>Таблица1[[#This Row],[wash time]]-Таблица1[[#This Row],[OGD time]]</f>
         <v>60.583467000000006</v>
       </c>
-      <c r="N8" s="30">
+      <c r="N8" s="24">
         <f>Таблица1[[#This Row],[AD time]]-Таблица1[[#This Row],[OGD time]]</f>
         <v>60.583467000000006</v>
       </c>
-      <c r="O8" s="30">
+      <c r="O8" s="24">
         <v>10.118333</v>
       </c>
-      <c r="P8" s="30">
+      <c r="P8" s="24">
         <v>70.701800000000006</v>
       </c>
-      <c r="Q8" s="30">
+      <c r="Q8" s="24">
         <v>70.701800000000006</v>
       </c>
-      <c r="R8" s="45"/>
-      <c r="S8" s="36" t="s">
+      <c r="R8" s="36"/>
+      <c r="S8" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="T8" s="21" t="s">
+      <c r="T8" s="84" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U8" s="81"/>
+      <c r="V8" s="81" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" s="13">
         <v>171</v>
       </c>
       <c r="B9" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="C9" s="28">
+      <c r="C9" s="22">
         <v>3</v>
       </c>
-      <c r="D9" s="32" t="s">
+      <c r="D9" s="26" t="s">
         <v>188</v>
       </c>
       <c r="E9" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="F9" s="54" t="s">
+      <c r="F9" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="G9" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="H9" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="I9" s="67" t="s">
-        <v>197</v>
-      </c>
-      <c r="J9" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="K9" s="67" t="s">
-        <v>197</v>
-      </c>
-      <c r="L9" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="M9" s="30">
+      <c r="G9" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="H9" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="I9" s="57" t="s">
+        <v>197</v>
+      </c>
+      <c r="J9" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="K9" s="57" t="s">
+        <v>197</v>
+      </c>
+      <c r="L9" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="M9" s="24">
         <f>Таблица1[[#This Row],[wash time]]-Таблица1[[#This Row],[OGD time]]</f>
         <v>79.45</v>
       </c>
-      <c r="N9" s="30">
+      <c r="N9" s="24">
         <f>Таблица1[[#This Row],[AD time]]-Таблица1[[#This Row],[OGD time]]</f>
         <v>79.45</v>
       </c>
-      <c r="O9" s="30">
+      <c r="O9" s="24">
         <v>10.17</v>
       </c>
-      <c r="P9" s="30">
+      <c r="P9" s="24">
         <v>89.62</v>
       </c>
-      <c r="Q9" s="30">
+      <c r="Q9" s="24">
         <v>89.62</v>
       </c>
-      <c r="R9" s="45"/>
-      <c r="S9" s="36" t="s">
+      <c r="R9" s="36"/>
+      <c r="S9" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="T9" s="21" t="s">
+      <c r="T9" s="84" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U9" s="81"/>
+      <c r="V9" s="81" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" s="13">
         <v>172</v>
       </c>
       <c r="B10" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="C10" s="28">
+      <c r="C10" s="22">
         <v>5</v>
       </c>
-      <c r="D10" s="32" t="s">
+      <c r="D10" s="26" t="s">
         <v>188</v>
       </c>
       <c r="E10" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="F10" s="54" t="s">
+      <c r="F10" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="G10" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="H10" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="I10" s="67" t="s">
-        <v>197</v>
-      </c>
-      <c r="J10" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="K10" s="67" t="s">
-        <v>197</v>
-      </c>
-      <c r="L10" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="M10" s="30">
+      <c r="G10" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="H10" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="I10" s="57" t="s">
+        <v>197</v>
+      </c>
+      <c r="J10" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="K10" s="57" t="s">
+        <v>197</v>
+      </c>
+      <c r="L10" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="M10" s="24">
         <f>Таблица1[[#This Row],[wash time]]-Таблица1[[#This Row],[OGD time]]</f>
         <v>62.997933000000003</v>
       </c>
-      <c r="N10" s="30">
+      <c r="N10" s="24">
         <f>Таблица1[[#This Row],[AD time]]-Таблица1[[#This Row],[OGD time]]</f>
         <v>62.997933000000003</v>
       </c>
-      <c r="O10" s="30">
+      <c r="O10" s="24">
         <v>10.169466999999999</v>
       </c>
-      <c r="P10" s="30">
+      <c r="P10" s="24">
         <v>73.167400000000001</v>
       </c>
-      <c r="Q10" s="30">
+      <c r="Q10" s="24">
         <v>73.167400000000001</v>
       </c>
-      <c r="R10" s="45"/>
-      <c r="S10" s="36" t="s">
+      <c r="R10" s="36"/>
+      <c r="S10" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="T10" s="21" t="s">
+      <c r="T10" s="84" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U10" s="81"/>
+      <c r="V10" s="81" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" s="13">
         <v>173</v>
       </c>
       <c r="B11" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="C11" s="28">
+      <c r="C11" s="22">
         <v>5</v>
       </c>
-      <c r="D11" s="32" t="s">
+      <c r="D11" s="26" t="s">
         <v>188</v>
       </c>
       <c r="E11" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="F11" s="54" t="s">
+      <c r="F11" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="G11" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="H11" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="I11" s="67" t="s">
-        <v>197</v>
-      </c>
-      <c r="J11" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="K11" s="67" t="s">
-        <v>197</v>
-      </c>
-      <c r="L11" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="M11" s="30">
+      <c r="G11" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="H11" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="I11" s="57" t="s">
+        <v>197</v>
+      </c>
+      <c r="J11" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="K11" s="57" t="s">
+        <v>197</v>
+      </c>
+      <c r="L11" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="M11" s="24">
         <f>Таблица1[[#This Row],[wash time]]-Таблица1[[#This Row],[OGD time]]</f>
         <v>59.999999999999993</v>
       </c>
-      <c r="N11" s="30">
+      <c r="N11" s="24">
         <f>Таблица1[[#This Row],[AD time]]-Таблица1[[#This Row],[OGD time]]</f>
         <v>59.999999999999993</v>
       </c>
-      <c r="O11" s="30">
+      <c r="O11" s="24">
         <v>10.24</v>
       </c>
-      <c r="P11" s="30">
+      <c r="P11" s="24">
         <v>70.239999999999995</v>
       </c>
-      <c r="Q11" s="30">
+      <c r="Q11" s="24">
         <v>70.239999999999995</v>
       </c>
-      <c r="R11" s="45"/>
-      <c r="S11" s="36" t="s">
+      <c r="R11" s="36"/>
+      <c r="S11" s="30" t="s">
         <v>138</v>
       </c>
-      <c r="T11" s="21" t="s">
+      <c r="T11" s="84" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U11" s="81"/>
+      <c r="V11" s="81" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" s="13">
         <v>174</v>
       </c>
       <c r="B12" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="C12" s="28">
+      <c r="C12" s="22">
         <v>5</v>
       </c>
-      <c r="D12" s="32" t="s">
+      <c r="D12" s="26" t="s">
         <v>188</v>
       </c>
       <c r="E12" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="F12" s="54" t="s">
+      <c r="F12" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="G12" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="H12" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="I12" s="67" t="s">
-        <v>197</v>
-      </c>
-      <c r="J12" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="K12" s="67" t="s">
-        <v>197</v>
-      </c>
-      <c r="L12" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="M12" s="30">
+      <c r="G12" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="H12" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="I12" s="57" t="s">
+        <v>197</v>
+      </c>
+      <c r="J12" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="K12" s="57" t="s">
+        <v>197</v>
+      </c>
+      <c r="L12" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="M12" s="24">
         <f>Таблица1[[#This Row],[wash time]]-Таблица1[[#This Row],[OGD time]]</f>
         <v>85.56</v>
       </c>
-      <c r="N12" s="30">
+      <c r="N12" s="24">
         <f>Таблица1[[#This Row],[AD time]]-Таблица1[[#This Row],[OGD time]]</f>
         <v>85.56</v>
       </c>
-      <c r="O12" s="30">
+      <c r="O12" s="24">
         <v>10.09</v>
       </c>
-      <c r="P12" s="30">
+      <c r="P12" s="24">
         <v>95.65</v>
       </c>
-      <c r="Q12" s="30">
+      <c r="Q12" s="24">
         <v>95.65</v>
       </c>
-      <c r="R12" s="45"/>
-      <c r="S12" s="36" t="s">
+      <c r="R12" s="36"/>
+      <c r="S12" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="T12" s="21" t="s">
+      <c r="T12" s="84" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U12" s="81"/>
+      <c r="V12" s="81" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" s="13">
         <v>179</v>
       </c>
       <c r="B13" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="C13" s="28">
+      <c r="C13" s="22">
         <v>3</v>
       </c>
-      <c r="D13" s="32" t="s">
+      <c r="D13" s="26" t="s">
         <v>188</v>
       </c>
       <c r="E13" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="F13" s="54" t="s">
+      <c r="F13" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="G13" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="H13" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="I13" s="67" t="s">
-        <v>197</v>
-      </c>
-      <c r="J13" s="67" t="s">
-        <v>197</v>
-      </c>
-      <c r="K13" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="L13" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="M13" s="30">
+      <c r="G13" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="H13" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="I13" s="57" t="s">
+        <v>197</v>
+      </c>
+      <c r="J13" s="57" t="s">
+        <v>197</v>
+      </c>
+      <c r="K13" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="L13" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="M13" s="24">
         <f>Таблица1[[#This Row],[wash time]]-Таблица1[[#This Row],[OGD time]]</f>
         <v>60.779999999999994</v>
       </c>
-      <c r="N13" s="30">
+      <c r="N13" s="24">
         <f>Таблица1[[#This Row],[AD time]]-Таблица1[[#This Row],[OGD time]]</f>
         <v>60.779999999999994</v>
       </c>
-      <c r="O13" s="30">
+      <c r="O13" s="24">
         <v>10.18</v>
       </c>
-      <c r="P13" s="30">
+      <c r="P13" s="24">
         <v>70.959999999999994</v>
       </c>
-      <c r="Q13" s="30">
+      <c r="Q13" s="24">
         <v>70.959999999999994</v>
       </c>
-      <c r="R13" s="45"/>
-      <c r="S13" s="36" t="s">
+      <c r="R13" s="36"/>
+      <c r="S13" s="30" t="s">
         <v>142</v>
       </c>
-      <c r="T13" s="21" t="s">
+      <c r="T13" s="84" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U13" s="81"/>
+      <c r="V13" s="81" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" s="13">
         <v>180</v>
       </c>
       <c r="B14" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="C14" s="28">
+      <c r="C14" s="22">
         <v>4</v>
       </c>
-      <c r="D14" s="32" t="s">
+      <c r="D14" s="26" t="s">
         <v>188</v>
       </c>
       <c r="E14" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="F14" s="54" t="s">
+      <c r="F14" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="G14" s="67" t="s">
-        <v>197</v>
-      </c>
-      <c r="H14" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="I14" s="67" t="s">
-        <v>197</v>
-      </c>
-      <c r="J14" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="K14" s="67" t="s">
-        <v>197</v>
-      </c>
-      <c r="L14" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="M14" s="30">
+      <c r="G14" s="57" t="s">
+        <v>197</v>
+      </c>
+      <c r="H14" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="I14" s="57" t="s">
+        <v>197</v>
+      </c>
+      <c r="J14" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="K14" s="57" t="s">
+        <v>197</v>
+      </c>
+      <c r="L14" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="M14" s="24">
         <f>Таблица1[[#This Row],[wash time]]-Таблица1[[#This Row],[OGD time]]</f>
         <v>65.427199999999999</v>
       </c>
-      <c r="N14" s="30">
+      <c r="N14" s="24">
         <f>Таблица1[[#This Row],[AD time]]-Таблица1[[#This Row],[OGD time]]</f>
         <v>65.427199999999999</v>
       </c>
-      <c r="O14" s="30">
+      <c r="O14" s="24">
         <v>5.09</v>
       </c>
-      <c r="P14" s="30">
+      <c r="P14" s="24">
         <v>70.517200000000003</v>
       </c>
-      <c r="Q14" s="30">
+      <c r="Q14" s="24">
         <v>70.517200000000003</v>
       </c>
-      <c r="R14" s="45"/>
-      <c r="S14" s="36" t="s">
+      <c r="R14" s="36"/>
+      <c r="S14" s="30" t="s">
         <v>144</v>
       </c>
-      <c r="T14" s="21" t="s">
+      <c r="T14" s="84" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U14" s="81"/>
+      <c r="V14" s="81" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" s="13">
         <v>181</v>
       </c>
       <c r="B15" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="C15" s="28">
+      <c r="C15" s="22">
         <v>4</v>
       </c>
-      <c r="D15" s="32" t="s">
+      <c r="D15" s="26" t="s">
         <v>188</v>
       </c>
       <c r="E15" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="F15" s="54" t="s">
+      <c r="F15" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="G15" s="67" t="s">
-        <v>197</v>
-      </c>
-      <c r="H15" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="I15" s="67" t="s">
-        <v>197</v>
-      </c>
-      <c r="J15" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="K15" s="67" t="s">
-        <v>197</v>
-      </c>
-      <c r="L15" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="M15" s="30">
+      <c r="G15" s="57" t="s">
+        <v>197</v>
+      </c>
+      <c r="H15" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="I15" s="57" t="s">
+        <v>197</v>
+      </c>
+      <c r="J15" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="K15" s="57" t="s">
+        <v>197</v>
+      </c>
+      <c r="L15" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="M15" s="24">
         <f>Таблица1[[#This Row],[wash time]]-Таблица1[[#This Row],[OGD time]]</f>
         <v>79.716700000000003</v>
       </c>
-      <c r="N15" s="30">
+      <c r="N15" s="24">
         <f>Таблица1[[#This Row],[AD time]]-Таблица1[[#This Row],[OGD time]]</f>
         <v>79.716700000000003</v>
       </c>
-      <c r="O15" s="30">
+      <c r="O15" s="24">
         <v>5.2633000000000001</v>
       </c>
-      <c r="P15" s="30">
+      <c r="P15" s="24">
         <v>84.98</v>
       </c>
-      <c r="Q15" s="30">
+      <c r="Q15" s="24">
         <v>84.98</v>
       </c>
-      <c r="R15" s="45"/>
-      <c r="S15" s="36" t="s">
+      <c r="R15" s="36"/>
+      <c r="S15" s="30" t="s">
         <v>146</v>
       </c>
-      <c r="T15" s="21" t="s">
+      <c r="T15" s="84" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U15" s="81"/>
+      <c r="V15" s="81" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" s="13">
         <v>182</v>
       </c>
       <c r="B16" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="C16" s="28">
+      <c r="C16" s="22">
         <v>3</v>
       </c>
-      <c r="D16" s="32" t="s">
+      <c r="D16" s="26" t="s">
         <v>188</v>
       </c>
       <c r="E16" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="F16" s="54" t="s">
+      <c r="F16" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="G16" s="67" t="s">
-        <v>197</v>
-      </c>
-      <c r="H16" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="I16" s="67" t="s">
-        <v>197</v>
-      </c>
-      <c r="J16" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="K16" s="67" t="s">
-        <v>197</v>
-      </c>
-      <c r="L16" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="M16" s="30">
+      <c r="G16" s="57" t="s">
+        <v>197</v>
+      </c>
+      <c r="H16" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="I16" s="57" t="s">
+        <v>197</v>
+      </c>
+      <c r="J16" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="K16" s="57" t="s">
+        <v>197</v>
+      </c>
+      <c r="L16" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="M16" s="24">
         <f>Таблица1[[#This Row],[wash time]]-Таблица1[[#This Row],[OGD time]]</f>
         <v>59.887999999999998</v>
       </c>
-      <c r="N16" s="30">
+      <c r="N16" s="24">
         <f>Таблица1[[#This Row],[AD time]]-Таблица1[[#This Row],[OGD time]]</f>
         <v>59.887999999999998</v>
       </c>
-      <c r="O16" s="30">
+      <c r="O16" s="24">
         <v>6.9420000000000002</v>
       </c>
-      <c r="P16" s="30">
+      <c r="P16" s="24">
         <v>66.83</v>
       </c>
-      <c r="Q16" s="30">
+      <c r="Q16" s="24">
         <v>66.83</v>
       </c>
-      <c r="R16" s="45"/>
-      <c r="S16" s="36" t="s">
+      <c r="R16" s="36"/>
+      <c r="S16" s="30" t="s">
         <v>148</v>
       </c>
-      <c r="T16" s="21" t="s">
+      <c r="T16" s="84" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U16" s="81"/>
+      <c r="V16" s="81" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17" s="13">
         <v>183</v>
       </c>
       <c r="B17" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="C17" s="28">
+      <c r="C17" s="22">
         <v>3</v>
       </c>
-      <c r="D17" s="32" t="s">
+      <c r="D17" s="26" t="s">
         <v>188</v>
       </c>
       <c r="E17" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="F17" s="54" t="s">
+      <c r="F17" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="G17" s="67" t="s">
-        <v>197</v>
-      </c>
-      <c r="H17" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="I17" s="67" t="s">
-        <v>197</v>
-      </c>
-      <c r="J17" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="K17" s="67" t="s">
-        <v>197</v>
-      </c>
-      <c r="L17" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="M17" s="30">
+      <c r="G17" s="57" t="s">
+        <v>197</v>
+      </c>
+      <c r="H17" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="I17" s="57" t="s">
+        <v>197</v>
+      </c>
+      <c r="J17" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="K17" s="57" t="s">
+        <v>197</v>
+      </c>
+      <c r="L17" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="M17" s="24">
         <f>Таблица1[[#This Row],[wash time]]-Таблица1[[#This Row],[OGD time]]</f>
         <v>59.443800000000003</v>
       </c>
-      <c r="N17" s="30">
+      <c r="N17" s="24">
         <f>Таблица1[[#This Row],[AD time]]-Таблица1[[#This Row],[OGD time]]</f>
         <v>59.443800000000003</v>
       </c>
-      <c r="O17" s="30">
+      <c r="O17" s="24">
         <v>5.7797999999999998</v>
       </c>
-      <c r="P17" s="30">
+      <c r="P17" s="24">
         <v>65.223600000000005</v>
       </c>
-      <c r="Q17" s="30">
+      <c r="Q17" s="24">
         <v>65.223600000000005</v>
       </c>
-      <c r="R17" s="45"/>
-      <c r="S17" s="36" t="s">
+      <c r="R17" s="36"/>
+      <c r="S17" s="30" t="s">
         <v>150</v>
       </c>
-      <c r="T17" s="21" t="s">
+      <c r="T17" s="84" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U17" s="81"/>
+      <c r="V17" s="81" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18" s="13">
         <v>289</v>
       </c>
       <c r="B18" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="C18" s="28">
+      <c r="C18" s="22">
         <v>4</v>
       </c>
-      <c r="D18" s="32" t="s">
+      <c r="D18" s="26" t="s">
         <v>188</v>
       </c>
       <c r="E18" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="F18" s="54" t="s">
+      <c r="F18" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="G18" s="67" t="s">
-        <v>197</v>
-      </c>
-      <c r="H18" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="I18" s="67" t="s">
-        <v>197</v>
-      </c>
-      <c r="J18" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="K18" s="67" t="s">
-        <v>197</v>
-      </c>
-      <c r="L18" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="M18" s="30">
+      <c r="G18" s="57" t="s">
+        <v>197</v>
+      </c>
+      <c r="H18" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="I18" s="57" t="s">
+        <v>197</v>
+      </c>
+      <c r="J18" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="K18" s="57" t="s">
+        <v>197</v>
+      </c>
+      <c r="L18" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="M18" s="24">
         <f>Таблица1[[#This Row],[wash time]]-Таблица1[[#This Row],[OGD time]]</f>
         <v>47.961299999999994</v>
       </c>
-      <c r="N18" s="30">
+      <c r="N18" s="24">
         <f>Таблица1[[#This Row],[AD time]]-Таблица1[[#This Row],[OGD time]]</f>
         <v>47.961299999999994</v>
       </c>
-      <c r="O18" s="30">
+      <c r="O18" s="24">
         <v>10.177300000000001</v>
       </c>
-      <c r="P18" s="30">
+      <c r="P18" s="24">
         <v>58.138599999999997</v>
       </c>
-      <c r="Q18" s="30">
+      <c r="Q18" s="24">
         <v>58.138599999999997</v>
       </c>
-      <c r="R18" s="45"/>
-      <c r="S18" s="36" t="s">
+      <c r="R18" s="36"/>
+      <c r="S18" s="30" t="s">
         <v>152</v>
       </c>
-      <c r="T18" s="22" t="s">
+      <c r="T18" s="85" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U18" s="81"/>
+      <c r="V18" s="81" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19" s="13">
         <v>291</v>
       </c>
       <c r="B19" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="C19" s="28">
+      <c r="C19" s="22">
         <v>4</v>
       </c>
-      <c r="D19" s="32" t="s">
+      <c r="D19" s="26" t="s">
         <v>188</v>
       </c>
       <c r="E19" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="F19" s="54" t="s">
+      <c r="F19" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="G19" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="H19" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="I19" s="67" t="s">
-        <v>197</v>
-      </c>
-      <c r="J19" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="K19" s="67" t="s">
-        <v>197</v>
-      </c>
-      <c r="L19" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="M19" s="30">
+      <c r="G19" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="H19" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="I19" s="57" t="s">
+        <v>197</v>
+      </c>
+      <c r="J19" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="K19" s="57" t="s">
+        <v>197</v>
+      </c>
+      <c r="L19" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="M19" s="24">
         <f>Таблица1[[#This Row],[wash time]]-Таблица1[[#This Row],[OGD time]]</f>
         <v>50.650599999999997</v>
       </c>
-      <c r="N19" s="30">
+      <c r="N19" s="24">
         <f>Таблица1[[#This Row],[AD time]]-Таблица1[[#This Row],[OGD time]]</f>
         <v>50.650599999999997</v>
       </c>
-      <c r="O19" s="30">
+      <c r="O19" s="24">
         <v>10.146100000000001</v>
       </c>
-      <c r="P19" s="30">
+      <c r="P19" s="24">
         <v>60.796700000000001</v>
       </c>
-      <c r="Q19" s="30">
+      <c r="Q19" s="24">
         <v>60.796700000000001</v>
       </c>
-      <c r="R19" s="45"/>
-      <c r="S19" s="36" t="s">
+      <c r="R19" s="36"/>
+      <c r="S19" s="30" t="s">
         <v>154</v>
       </c>
-      <c r="T19" s="22" t="s">
+      <c r="T19" s="85" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U19" s="81"/>
+      <c r="V19" s="81" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20" s="13">
         <v>292</v>
       </c>
       <c r="B20" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="C20" s="28">
+      <c r="C20" s="22">
         <v>3</v>
       </c>
-      <c r="D20" s="32" t="s">
+      <c r="D20" s="26" t="s">
         <v>188</v>
       </c>
       <c r="E20" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="F20" s="54" t="s">
+      <c r="F20" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="G20" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="H20" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="I20" s="67" t="s">
-        <v>197</v>
-      </c>
-      <c r="J20" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="K20" s="67" t="s">
-        <v>197</v>
-      </c>
-      <c r="L20" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="M20" s="30">
+      <c r="G20" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="H20" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="I20" s="57" t="s">
+        <v>197</v>
+      </c>
+      <c r="J20" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="K20" s="57" t="s">
+        <v>197</v>
+      </c>
+      <c r="L20" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="M20" s="24">
         <f>Таблица1[[#This Row],[wash time]]-Таблица1[[#This Row],[OGD time]]</f>
         <v>49.019599999999997</v>
       </c>
-      <c r="N20" s="30">
+      <c r="N20" s="24">
         <f>Таблица1[[#This Row],[AD time]]-Таблица1[[#This Row],[OGD time]]</f>
         <v>49.019599999999997</v>
       </c>
-      <c r="O20" s="30">
+      <c r="O20" s="24">
         <v>10.1599</v>
       </c>
-      <c r="P20" s="30">
+      <c r="P20" s="24">
         <v>59.179499999999997</v>
       </c>
-      <c r="Q20" s="30">
+      <c r="Q20" s="24">
         <v>59.179499999999997</v>
       </c>
-      <c r="R20" s="45"/>
-      <c r="S20" s="36" t="s">
+      <c r="R20" s="36"/>
+      <c r="S20" s="30" t="s">
         <v>156</v>
       </c>
-      <c r="T20" s="22" t="s">
+      <c r="T20" s="85" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U20" s="81"/>
+      <c r="V20" s="81" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21" s="13">
         <v>300</v>
       </c>
       <c r="B21" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="C21" s="28">
+      <c r="C21" s="22">
         <v>3</v>
       </c>
-      <c r="D21" s="32" t="s">
+      <c r="D21" s="26" t="s">
         <v>188</v>
       </c>
       <c r="E21" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="F21" s="54" t="s">
+      <c r="F21" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="G21" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="H21" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="I21" s="67" t="s">
-        <v>197</v>
-      </c>
-      <c r="J21" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="K21" s="67" t="s">
-        <v>197</v>
-      </c>
-      <c r="L21" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="M21" s="30">
+      <c r="G21" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="H21" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="I21" s="57" t="s">
+        <v>197</v>
+      </c>
+      <c r="J21" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="K21" s="57" t="s">
+        <v>197</v>
+      </c>
+      <c r="L21" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="M21" s="24">
         <f>Таблица1[[#This Row],[wash time]]-Таблица1[[#This Row],[OGD time]]</f>
         <v>59.3277</v>
       </c>
-      <c r="N21" s="30">
+      <c r="N21" s="24">
         <f>Таблица1[[#This Row],[AD time]]-Таблица1[[#This Row],[OGD time]]</f>
         <v>59.3277</v>
       </c>
-      <c r="O21" s="30">
+      <c r="O21" s="24">
         <v>9.9102999999999994</v>
       </c>
-      <c r="P21" s="30">
+      <c r="P21" s="24">
         <v>69.238</v>
       </c>
-      <c r="Q21" s="30">
+      <c r="Q21" s="24">
         <v>69.238</v>
       </c>
-      <c r="R21" s="45"/>
-      <c r="S21" s="36" t="s">
+      <c r="R21" s="36"/>
+      <c r="S21" s="30" t="s">
         <v>158</v>
       </c>
-      <c r="T21" s="22" t="s">
+      <c r="T21" s="85" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U21" s="81"/>
+      <c r="V21" s="81" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A22" s="13">
         <v>301</v>
       </c>
       <c r="B22" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="C22" s="28">
+      <c r="C22" s="22">
         <v>3</v>
       </c>
-      <c r="D22" s="32" t="s">
+      <c r="D22" s="26" t="s">
         <v>188</v>
       </c>
       <c r="E22" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="F22" s="54" t="s">
+      <c r="F22" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="G22" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="H22" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="I22" s="67" t="s">
-        <v>197</v>
-      </c>
-      <c r="J22" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="K22" s="67" t="s">
-        <v>197</v>
-      </c>
-      <c r="L22" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="M22" s="30">
+      <c r="G22" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="H22" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="I22" s="57" t="s">
+        <v>197</v>
+      </c>
+      <c r="J22" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="K22" s="57" t="s">
+        <v>197</v>
+      </c>
+      <c r="L22" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="M22" s="24">
         <f>Таблица1[[#This Row],[wash time]]-Таблица1[[#This Row],[OGD time]]</f>
         <v>60.441299999999998</v>
       </c>
-      <c r="N22" s="30">
+      <c r="N22" s="24">
         <f>Таблица1[[#This Row],[AD time]]-Таблица1[[#This Row],[OGD time]]</f>
         <v>60.441299999999998</v>
       </c>
-      <c r="O22" s="30">
+      <c r="O22" s="24">
         <v>16.646100000000001</v>
       </c>
-      <c r="P22" s="30">
+      <c r="P22" s="24">
         <v>77.087400000000002</v>
       </c>
-      <c r="Q22" s="30">
+      <c r="Q22" s="24">
         <v>77.087400000000002</v>
       </c>
-      <c r="R22" s="45"/>
-      <c r="S22" s="36" t="s">
+      <c r="R22" s="36"/>
+      <c r="S22" s="30" t="s">
         <v>160</v>
       </c>
-      <c r="T22" s="22" t="s">
+      <c r="T22" s="85" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U22" s="81"/>
+      <c r="V22" s="81" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A23" s="13">
         <v>303</v>
       </c>
       <c r="B23" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="C23" s="28">
+      <c r="C23" s="22">
         <v>4</v>
       </c>
-      <c r="D23" s="32" t="s">
+      <c r="D23" s="26" t="s">
         <v>188</v>
       </c>
       <c r="E23" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="F23" s="54" t="s">
+      <c r="F23" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="G23" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="H23" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="I23" s="67" t="s">
-        <v>197</v>
-      </c>
-      <c r="J23" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="K23" s="67" t="s">
-        <v>197</v>
-      </c>
-      <c r="L23" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="M23" s="30">
+      <c r="G23" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="H23" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="I23" s="57" t="s">
+        <v>197</v>
+      </c>
+      <c r="J23" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="K23" s="57" t="s">
+        <v>197</v>
+      </c>
+      <c r="L23" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="M23" s="24">
         <f>Таблица1[[#This Row],[wash time]]-Таблица1[[#This Row],[OGD time]]</f>
         <v>60.749800000000008</v>
       </c>
-      <c r="N23" s="30">
+      <c r="N23" s="24">
         <f>Таблица1[[#This Row],[AD time]]-Таблица1[[#This Row],[OGD time]]</f>
         <v>60.749800000000008</v>
       </c>
-      <c r="O23" s="30">
+      <c r="O23" s="24">
         <v>9.8470999999999993</v>
       </c>
-      <c r="P23" s="30">
+      <c r="P23" s="24">
         <v>70.596900000000005</v>
       </c>
-      <c r="Q23" s="30">
+      <c r="Q23" s="24">
         <v>70.596900000000005</v>
       </c>
-      <c r="R23" s="45"/>
-      <c r="S23" s="36" t="s">
+      <c r="R23" s="36"/>
+      <c r="S23" s="30" t="s">
         <v>162</v>
       </c>
-      <c r="T23" s="22" t="s">
+      <c r="T23" s="85" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U23" s="81"/>
+      <c r="V23" s="81" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A24" s="13">
         <v>304</v>
       </c>
       <c r="B24" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="C24" s="28">
+      <c r="C24" s="22">
         <v>4</v>
       </c>
-      <c r="D24" s="32" t="s">
+      <c r="D24" s="26" t="s">
         <v>188</v>
       </c>
       <c r="E24" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="F24" s="54" t="s">
+      <c r="F24" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="G24" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="H24" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="I24" s="67" t="s">
-        <v>197</v>
-      </c>
-      <c r="J24" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="K24" s="67" t="s">
-        <v>197</v>
-      </c>
-      <c r="L24" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="M24" s="30">
+      <c r="G24" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="H24" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="I24" s="57" t="s">
+        <v>197</v>
+      </c>
+      <c r="J24" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="K24" s="57" t="s">
+        <v>197</v>
+      </c>
+      <c r="L24" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="M24" s="24">
         <f>Таблица1[[#This Row],[wash time]]-Таблица1[[#This Row],[OGD time]]</f>
         <v>58.708899999999993</v>
       </c>
-      <c r="N24" s="30">
+      <c r="N24" s="24">
         <f>Таблица1[[#This Row],[AD time]]-Таблица1[[#This Row],[OGD time]]</f>
         <v>58.708899999999993</v>
       </c>
-      <c r="O24" s="30">
+      <c r="O24" s="24">
         <v>10.0221</v>
       </c>
-      <c r="P24" s="30">
+      <c r="P24" s="24">
         <v>68.730999999999995</v>
       </c>
-      <c r="Q24" s="30">
+      <c r="Q24" s="24">
         <v>68.730999999999995</v>
       </c>
-      <c r="R24" s="45"/>
-      <c r="S24" s="36" t="s">
+      <c r="R24" s="36"/>
+      <c r="S24" s="30" t="s">
         <v>164</v>
       </c>
-      <c r="T24" s="22" t="s">
+      <c r="T24" s="85" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U24" s="81"/>
+      <c r="V24" s="81" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A25" s="13">
         <v>305</v>
       </c>
       <c r="B25" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="C25" s="28">
+      <c r="C25" s="22">
         <v>4</v>
       </c>
-      <c r="D25" s="32" t="s">
+      <c r="D25" s="26" t="s">
         <v>188</v>
       </c>
       <c r="E25" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="F25" s="54" t="s">
+      <c r="F25" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="G25" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="H25" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="I25" s="67" t="s">
-        <v>197</v>
-      </c>
-      <c r="J25" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="K25" s="67" t="s">
-        <v>197</v>
-      </c>
-      <c r="L25" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="M25" s="30">
+      <c r="G25" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="H25" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="I25" s="57" t="s">
+        <v>197</v>
+      </c>
+      <c r="J25" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="K25" s="57" t="s">
+        <v>197</v>
+      </c>
+      <c r="L25" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="M25" s="24">
         <f>Таблица1[[#This Row],[wash time]]-Таблица1[[#This Row],[OGD time]]</f>
         <v>62.622699999999995</v>
       </c>
-      <c r="N25" s="30">
+      <c r="N25" s="24">
         <f>Таблица1[[#This Row],[AD time]]-Таблица1[[#This Row],[OGD time]]</f>
         <v>62.622699999999995</v>
       </c>
-      <c r="O25" s="30">
+      <c r="O25" s="24">
         <v>9.6069999999999993</v>
       </c>
-      <c r="P25" s="30">
+      <c r="P25" s="24">
         <v>72.229699999999994</v>
       </c>
-      <c r="Q25" s="30">
+      <c r="Q25" s="24">
         <v>72.229699999999994</v>
       </c>
-      <c r="R25" s="45"/>
-      <c r="S25" s="36" t="s">
+      <c r="R25" s="36"/>
+      <c r="S25" s="30" t="s">
         <v>166</v>
       </c>
-      <c r="T25" s="37" t="s">
+      <c r="T25" s="86" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U25" s="81"/>
+      <c r="V25" s="81" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A26" s="13">
         <v>315</v>
       </c>
       <c r="B26" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="C26" s="28">
+      <c r="C26" s="22">
         <v>4</v>
       </c>
-      <c r="D26" s="32" t="s">
+      <c r="D26" s="26" t="s">
         <v>188</v>
       </c>
       <c r="E26" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="F26" s="54" t="s">
+      <c r="F26" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="G26" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="H26" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="I26" s="67" t="s">
-        <v>197</v>
-      </c>
-      <c r="J26" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="K26" s="67" t="s">
-        <v>197</v>
-      </c>
-      <c r="L26" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="M26" s="30">
+      <c r="G26" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="H26" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="I26" s="57" t="s">
+        <v>197</v>
+      </c>
+      <c r="J26" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="K26" s="57" t="s">
+        <v>197</v>
+      </c>
+      <c r="L26" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="M26" s="24">
         <f>Таблица1[[#This Row],[wash time]]-Таблица1[[#This Row],[OGD time]]</f>
         <v>56.943399999999997</v>
       </c>
-      <c r="N26" s="30">
+      <c r="N26" s="24">
         <f>Таблица1[[#This Row],[AD time]]-Таблица1[[#This Row],[OGD time]]</f>
         <v>56.943399999999997</v>
       </c>
-      <c r="O26" s="30">
+      <c r="O26" s="24">
         <v>9.7196999999999996</v>
       </c>
-      <c r="P26" s="30">
+      <c r="P26" s="24">
         <v>66.6631</v>
       </c>
-      <c r="Q26" s="30">
+      <c r="Q26" s="24">
         <v>66.6631</v>
       </c>
-      <c r="R26" s="45"/>
-      <c r="S26" s="36" t="s">
+      <c r="R26" s="36"/>
+      <c r="S26" s="30" t="s">
         <v>168</v>
       </c>
-      <c r="T26" s="37" t="s">
+      <c r="T26" s="86" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U26" s="81"/>
+      <c r="V26" s="81" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A27" s="13">
         <v>321</v>
       </c>
       <c r="B27" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="C27" s="28">
+      <c r="C27" s="22">
         <v>5</v>
       </c>
-      <c r="D27" s="32" t="s">
+      <c r="D27" s="26" t="s">
         <v>188</v>
       </c>
       <c r="E27" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="F27" s="54" t="s">
+      <c r="F27" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="G27" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="H27" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="I27" s="67" t="s">
-        <v>197</v>
-      </c>
-      <c r="J27" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="K27" s="67" t="s">
-        <v>197</v>
-      </c>
-      <c r="L27" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="M27" s="30">
+      <c r="G27" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="H27" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="I27" s="57" t="s">
+        <v>197</v>
+      </c>
+      <c r="J27" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="K27" s="57" t="s">
+        <v>197</v>
+      </c>
+      <c r="L27" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="M27" s="24">
         <f>Таблица1[[#This Row],[wash time]]-Таблица1[[#This Row],[OGD time]]</f>
         <v>44.235900000000001</v>
       </c>
-      <c r="N27" s="30">
+      <c r="N27" s="24">
         <f>Таблица1[[#This Row],[AD time]]-Таблица1[[#This Row],[OGD time]]</f>
         <v>44.235900000000001</v>
       </c>
-      <c r="O27" s="30">
+      <c r="O27" s="24">
         <v>4.71</v>
       </c>
-      <c r="P27" s="30">
+      <c r="P27" s="24">
         <v>48.945900000000002</v>
       </c>
-      <c r="Q27" s="30">
+      <c r="Q27" s="24">
         <v>48.945900000000002</v>
       </c>
-      <c r="R27" s="45"/>
-      <c r="S27" s="36" t="s">
+      <c r="R27" s="36"/>
+      <c r="S27" s="30" t="s">
         <v>170</v>
       </c>
-      <c r="T27" s="37" t="s">
+      <c r="T27" s="86" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U27" s="81"/>
+      <c r="V27" s="81" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A28" s="13">
         <v>330</v>
       </c>
-      <c r="B28" s="76" t="s">
+      <c r="B28" s="66" t="s">
         <v>172</v>
       </c>
-      <c r="C28" s="28">
+      <c r="C28" s="22">
         <v>6</v>
       </c>
-      <c r="D28" s="32" t="s">
+      <c r="D28" s="26" t="s">
         <v>188</v>
       </c>
       <c r="E28" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="F28" s="54" t="s">
+      <c r="F28" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="G28" s="67" t="s">
-        <v>197</v>
-      </c>
-      <c r="H28" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="I28" s="67" t="s">
-        <v>197</v>
-      </c>
-      <c r="J28" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="K28" s="67" t="s">
-        <v>197</v>
-      </c>
-      <c r="L28" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="M28" s="30">
+      <c r="G28" s="57" t="s">
+        <v>197</v>
+      </c>
+      <c r="H28" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="I28" s="57" t="s">
+        <v>197</v>
+      </c>
+      <c r="J28" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="K28" s="57" t="s">
+        <v>197</v>
+      </c>
+      <c r="L28" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="M28" s="24">
         <f>Таблица1[[#This Row],[wash time]]-Таблица1[[#This Row],[OGD time]]</f>
         <v>51.604200000000006</v>
       </c>
-      <c r="N28" s="38">
+      <c r="N28" s="31">
         <f>Таблица1[[#This Row],[AD time]]-Таблица1[[#This Row],[OGD time]]</f>
         <v>32.110616666666701</v>
       </c>
-      <c r="O28" s="38">
+      <c r="O28" s="31">
         <v>4.7300000000000004</v>
       </c>
-      <c r="P28" s="38">
+      <c r="P28" s="31">
         <v>56.334200000000003</v>
       </c>
-      <c r="Q28" s="38">
+      <c r="Q28" s="31">
         <v>36.840616666666698</v>
       </c>
-      <c r="R28" s="45"/>
-      <c r="S28" s="33" t="s">
+      <c r="R28" s="36"/>
+      <c r="S28" s="27" t="s">
         <v>180</v>
       </c>
-      <c r="T28" s="39" t="s">
+      <c r="T28" s="87" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U28" s="81"/>
+      <c r="V28" s="81" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A29" s="13">
         <v>331</v>
       </c>
       <c r="B29" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="C29" s="28">
+      <c r="C29" s="22">
         <v>8</v>
       </c>
-      <c r="D29" s="32" t="s">
+      <c r="D29" s="26" t="s">
         <v>188</v>
       </c>
       <c r="E29" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="F29" s="54" t="s">
+      <c r="F29" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="G29" s="67" t="s">
-        <v>197</v>
-      </c>
-      <c r="H29" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="I29" s="67" t="s">
-        <v>197</v>
-      </c>
-      <c r="J29" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="K29" s="67" t="s">
-        <v>197</v>
-      </c>
-      <c r="L29" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="M29" s="30">
+      <c r="G29" s="57" t="s">
+        <v>197</v>
+      </c>
+      <c r="H29" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="I29" s="57" t="s">
+        <v>197</v>
+      </c>
+      <c r="J29" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="K29" s="57" t="s">
+        <v>197</v>
+      </c>
+      <c r="L29" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="M29" s="24">
         <f>Таблица1[[#This Row],[wash time]]-Таблица1[[#This Row],[OGD time]]</f>
         <v>39.037299999999995</v>
       </c>
-      <c r="N29" s="38">
+      <c r="N29" s="31">
         <f>Таблица1[[#This Row],[AD time]]-Таблица1[[#This Row],[OGD time]]</f>
         <v>24.432250000000003</v>
       </c>
-      <c r="O29" s="38">
+      <c r="O29" s="31">
         <v>4.8117000000000001</v>
       </c>
-      <c r="P29" s="38">
+      <c r="P29" s="31">
         <v>43.848999999999997</v>
       </c>
-      <c r="Q29" s="38">
+      <c r="Q29" s="31">
         <v>29.243950000000002</v>
       </c>
-      <c r="R29" s="45"/>
-      <c r="S29" s="40" t="s">
+      <c r="R29" s="36"/>
+      <c r="S29" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="T29" s="41" t="s">
+      <c r="T29" s="88" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U29" s="81"/>
+      <c r="V29" s="81" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A30" s="13">
         <v>332</v>
       </c>
       <c r="B30" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="C30" s="28">
+      <c r="C30" s="22">
         <v>8</v>
       </c>
-      <c r="D30" s="32" t="s">
+      <c r="D30" s="26" t="s">
         <v>188</v>
       </c>
       <c r="E30" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="F30" s="54" t="s">
+      <c r="F30" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="G30" s="67" t="s">
-        <v>197</v>
-      </c>
-      <c r="H30" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="I30" s="67" t="s">
-        <v>197</v>
-      </c>
-      <c r="J30" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="K30" s="67" t="s">
-        <v>197</v>
-      </c>
-      <c r="L30" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="M30" s="30">
+      <c r="G30" s="57" t="s">
+        <v>197</v>
+      </c>
+      <c r="H30" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="I30" s="57" t="s">
+        <v>197</v>
+      </c>
+      <c r="J30" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="K30" s="57" t="s">
+        <v>197</v>
+      </c>
+      <c r="L30" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="M30" s="24">
         <f>Таблица1[[#This Row],[wash time]]-Таблица1[[#This Row],[OGD time]]</f>
         <v>34.755900000000004</v>
       </c>
-      <c r="N30" s="38">
+      <c r="N30" s="31">
         <f>Таблица1[[#This Row],[AD time]]-Таблица1[[#This Row],[OGD time]]</f>
         <v>19.7911</v>
       </c>
-      <c r="O30" s="38">
+      <c r="O30" s="31">
         <v>5.1333000000000002</v>
       </c>
-      <c r="P30" s="38">
+      <c r="P30" s="31">
         <v>39.889200000000002</v>
       </c>
-      <c r="Q30" s="38">
+      <c r="Q30" s="31">
         <v>24.924399999999999</v>
       </c>
-      <c r="R30" s="45"/>
-      <c r="S30" s="42" t="s">
+      <c r="R30" s="36"/>
+      <c r="S30" s="33" t="s">
         <v>178</v>
       </c>
-      <c r="T30" s="39" t="s">
+      <c r="T30" s="87" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U30" s="81"/>
+      <c r="V30" s="81" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A31" s="13">
         <v>334</v>
       </c>
       <c r="B31" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="C31" s="28">
+      <c r="C31" s="22">
         <v>8</v>
       </c>
-      <c r="D31" s="32" t="s">
+      <c r="D31" s="26" t="s">
         <v>188</v>
       </c>
       <c r="E31" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="F31" s="54" t="s">
+      <c r="F31" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="G31" s="67" t="s">
-        <v>197</v>
-      </c>
-      <c r="H31" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="I31" s="67" t="s">
-        <v>197</v>
-      </c>
-      <c r="J31" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="K31" s="67" t="s">
-        <v>197</v>
-      </c>
-      <c r="L31" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="M31" s="30">
+      <c r="G31" s="57" t="s">
+        <v>197</v>
+      </c>
+      <c r="H31" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="I31" s="57" t="s">
+        <v>197</v>
+      </c>
+      <c r="J31" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="K31" s="57" t="s">
+        <v>197</v>
+      </c>
+      <c r="L31" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="M31" s="24">
         <f>Таблица1[[#This Row],[wash time]]-Таблица1[[#This Row],[OGD time]]</f>
         <v>40.771499999999996</v>
       </c>
-      <c r="N31" s="38">
+      <c r="N31" s="31">
         <f>Таблица1[[#This Row],[AD time]]-Таблица1[[#This Row],[OGD time]]</f>
         <v>23.399316666666699</v>
       </c>
-      <c r="O31" s="38">
+      <c r="O31" s="31">
         <v>5.0560999999999998</v>
       </c>
-      <c r="P31" s="38">
+      <c r="P31" s="31">
         <v>45.827599999999997</v>
       </c>
-      <c r="Q31" s="38">
+      <c r="Q31" s="31">
         <v>28.4554166666667</v>
       </c>
-      <c r="R31" s="45"/>
-      <c r="S31" s="42" t="s">
+      <c r="R31" s="36"/>
+      <c r="S31" s="33" t="s">
         <v>182</v>
       </c>
-      <c r="T31" s="39" t="s">
+      <c r="T31" s="87" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A32" s="77">
+      <c r="U31" s="81"/>
+      <c r="V31" s="81" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A32" s="67">
         <v>446</v>
       </c>
-      <c r="B32" s="74" t="s">
+      <c r="B32" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="52">
+      <c r="C32" s="43">
         <v>5</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E32" s="48" t="s">
+      <c r="E32" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="F32" s="54" t="s">
+      <c r="F32" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="G32" s="67" t="s">
-        <v>197</v>
-      </c>
-      <c r="H32" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="I32" s="67" t="s">
-        <v>197</v>
-      </c>
-      <c r="J32" s="67" t="s">
-        <v>197</v>
-      </c>
-      <c r="K32" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="L32" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="M32" s="30">
+      <c r="G32" s="57" t="s">
+        <v>197</v>
+      </c>
+      <c r="H32" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="I32" s="57" t="s">
+        <v>197</v>
+      </c>
+      <c r="J32" s="57" t="s">
+        <v>197</v>
+      </c>
+      <c r="K32" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="L32" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="M32" s="24">
         <f>Таблица1[[#This Row],[wash time]]-Таблица1[[#This Row],[OGD time]]</f>
         <v>26.862933333333302</v>
       </c>
@@ -5317,52 +5631,56 @@
       <c r="P32" s="19">
         <v>36.997120000000002</v>
       </c>
-      <c r="R32" s="45"/>
-      <c r="S32" s="36" t="s">
+      <c r="R32" s="36"/>
+      <c r="S32" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="T32" s="23" t="s">
+      <c r="T32" s="89" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A33" s="77">
+      <c r="U32" s="81"/>
+      <c r="V32" s="81" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A33" s="67">
         <v>447</v>
       </c>
-      <c r="B33" s="74" t="s">
+      <c r="B33" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="52">
+      <c r="C33" s="43">
         <v>5</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E33" s="48" t="s">
+      <c r="E33" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="F33" s="54" t="s">
+      <c r="F33" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="G33" s="67" t="s">
-        <v>197</v>
-      </c>
-      <c r="H33" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="I33" s="67" t="s">
-        <v>197</v>
-      </c>
-      <c r="J33" s="67" t="s">
-        <v>197</v>
-      </c>
-      <c r="K33" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="L33" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="M33" s="30">
+      <c r="G33" s="57" t="s">
+        <v>197</v>
+      </c>
+      <c r="H33" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="I33" s="57" t="s">
+        <v>197</v>
+      </c>
+      <c r="J33" s="57" t="s">
+        <v>197</v>
+      </c>
+      <c r="K33" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="L33" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="M33" s="24">
         <f>Таблица1[[#This Row],[wash time]]-Таблица1[[#This Row],[OGD time]]</f>
         <v>26.810026666666698</v>
       </c>
@@ -5374,54 +5692,58 @@
         <v>32.178346666666698</v>
       </c>
       <c r="Q33" s="14"/>
-      <c r="R33" s="45">
+      <c r="R33" s="36">
         <v>32.4</v>
       </c>
-      <c r="S33" s="36" t="s">
+      <c r="S33" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="T33" s="23" t="s">
+      <c r="T33" s="89" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A34" s="77">
+      <c r="U33" s="81"/>
+      <c r="V33" s="81" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A34" s="67">
         <v>450</v>
       </c>
-      <c r="B34" s="74" t="s">
+      <c r="B34" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="C34" s="75">
+      <c r="C34" s="65">
         <v>6</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E34" s="48" t="s">
+      <c r="E34" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="F34" s="54" t="s">
+      <c r="F34" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="G34" s="67" t="s">
-        <v>197</v>
-      </c>
-      <c r="H34" s="67" t="s">
-        <v>197</v>
-      </c>
-      <c r="I34" s="67" t="s">
-        <v>197</v>
-      </c>
-      <c r="J34" s="67" t="s">
-        <v>197</v>
-      </c>
-      <c r="K34" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="L34" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="M34" s="30">
+      <c r="G34" s="57" t="s">
+        <v>197</v>
+      </c>
+      <c r="H34" s="57" t="s">
+        <v>197</v>
+      </c>
+      <c r="I34" s="57" t="s">
+        <v>197</v>
+      </c>
+      <c r="J34" s="57" t="s">
+        <v>197</v>
+      </c>
+      <c r="K34" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="L34" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="M34" s="24">
         <f>Таблица1[[#This Row],[wash time]]-Таблица1[[#This Row],[OGD time]]</f>
         <v>21.699413333333329</v>
       </c>
@@ -5433,54 +5755,58 @@
         <v>27.054079999999999</v>
       </c>
       <c r="Q34" s="14"/>
-      <c r="R34" s="45">
+      <c r="R34" s="36">
         <v>27.1635574416667</v>
       </c>
-      <c r="S34" s="43" t="s">
+      <c r="S34" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="T34" s="24" t="s">
+      <c r="T34" s="90" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A35" s="77">
+      <c r="U34" s="81"/>
+      <c r="V34" s="81" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A35" s="67">
         <v>451</v>
       </c>
-      <c r="B35" s="74" t="s">
+      <c r="B35" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="C35" s="75">
+      <c r="C35" s="65">
         <v>7</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E35" s="48" t="s">
+      <c r="E35" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="F35" s="54" t="s">
+      <c r="F35" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="G35" s="67" t="s">
-        <v>197</v>
-      </c>
-      <c r="H35" s="67" t="s">
-        <v>197</v>
-      </c>
-      <c r="I35" s="67" t="s">
-        <v>197</v>
-      </c>
-      <c r="J35" s="67" t="s">
-        <v>197</v>
-      </c>
-      <c r="K35" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="L35" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="M35" s="30">
+      <c r="G35" s="57" t="s">
+        <v>197</v>
+      </c>
+      <c r="H35" s="57" t="s">
+        <v>197</v>
+      </c>
+      <c r="I35" s="57" t="s">
+        <v>197</v>
+      </c>
+      <c r="J35" s="57" t="s">
+        <v>197</v>
+      </c>
+      <c r="K35" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="L35" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="M35" s="24">
         <f>Таблица1[[#This Row],[wash time]]-Таблица1[[#This Row],[OGD time]]</f>
         <v>32.597333333333303</v>
       </c>
@@ -5491,52 +5817,56 @@
       <c r="P35" s="19">
         <v>37.668693333333302</v>
       </c>
-      <c r="R35" s="45"/>
-      <c r="S35" s="36" t="s">
+      <c r="R35" s="36"/>
+      <c r="S35" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="T35" s="23" t="s">
+      <c r="T35" s="89" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A36" s="77">
+      <c r="U35" s="81"/>
+      <c r="V35" s="81" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A36" s="67">
         <v>452</v>
       </c>
-      <c r="B36" s="74" t="s">
+      <c r="B36" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="C36" s="75">
+      <c r="C36" s="65">
         <v>7</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E36" s="48" t="s">
+      <c r="E36" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="F36" s="54" t="s">
+      <c r="F36" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="G36" s="67" t="s">
-        <v>197</v>
-      </c>
-      <c r="H36" s="67" t="s">
-        <v>197</v>
-      </c>
-      <c r="I36" s="67" t="s">
-        <v>197</v>
-      </c>
-      <c r="J36" s="67" t="s">
-        <v>197</v>
-      </c>
-      <c r="K36" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="L36" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="M36" s="30">
+      <c r="G36" s="57" t="s">
+        <v>197</v>
+      </c>
+      <c r="H36" s="57" t="s">
+        <v>197</v>
+      </c>
+      <c r="I36" s="57" t="s">
+        <v>197</v>
+      </c>
+      <c r="J36" s="57" t="s">
+        <v>197</v>
+      </c>
+      <c r="K36" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="L36" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="M36" s="24">
         <f>Таблица1[[#This Row],[wash time]]-Таблица1[[#This Row],[OGD time]]</f>
         <v>24.402773333333371</v>
       </c>
@@ -5547,54 +5877,58 @@
       <c r="P36" s="19">
         <v>30.330026666666701</v>
       </c>
-      <c r="R36" s="45">
+      <c r="R36" s="36">
         <v>30.6631568666667</v>
       </c>
-      <c r="S36" s="36" t="s">
+      <c r="S36" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="T36" s="23" t="s">
+      <c r="T36" s="89" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A37" s="77">
+      <c r="U36" s="81"/>
+      <c r="V36" s="81" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A37" s="67">
         <v>453</v>
       </c>
-      <c r="B37" s="74" t="s">
+      <c r="B37" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="C37" s="75">
+      <c r="C37" s="65">
         <v>7</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E37" s="48" t="s">
+      <c r="E37" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="F37" s="54" t="s">
+      <c r="F37" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="G37" s="67" t="s">
-        <v>197</v>
-      </c>
-      <c r="H37" s="67" t="s">
-        <v>197</v>
-      </c>
-      <c r="I37" s="67" t="s">
-        <v>197</v>
-      </c>
-      <c r="J37" s="67" t="s">
-        <v>197</v>
-      </c>
-      <c r="K37" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="L37" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="M37" s="30">
+      <c r="G37" s="57" t="s">
+        <v>197</v>
+      </c>
+      <c r="H37" s="57" t="s">
+        <v>197</v>
+      </c>
+      <c r="I37" s="57" t="s">
+        <v>197</v>
+      </c>
+      <c r="J37" s="57" t="s">
+        <v>197</v>
+      </c>
+      <c r="K37" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="L37" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="M37" s="24">
         <f>Таблица1[[#This Row],[wash time]]-Таблица1[[#This Row],[OGD time]]</f>
         <v>32.170666666666676</v>
       </c>
@@ -5605,52 +5939,56 @@
       <c r="P37" s="19">
         <v>36.912640000000003</v>
       </c>
-      <c r="R37" s="45"/>
-      <c r="S37" s="36" t="s">
+      <c r="R37" s="36"/>
+      <c r="S37" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="T37" s="23" t="s">
+      <c r="T37" s="89" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A38" s="77">
+      <c r="U37" s="81"/>
+      <c r="V37" s="81" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A38" s="67">
         <v>454</v>
       </c>
-      <c r="B38" s="74" t="s">
+      <c r="B38" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="C38" s="75">
+      <c r="C38" s="65">
         <v>4</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E38" s="48" t="s">
+      <c r="E38" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="F38" s="54" t="s">
+      <c r="F38" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="G38" s="67" t="s">
-        <v>197</v>
-      </c>
-      <c r="H38" s="67" t="s">
-        <v>197</v>
-      </c>
-      <c r="I38" s="67" t="s">
-        <v>197</v>
-      </c>
-      <c r="J38" s="67" t="s">
-        <v>197</v>
-      </c>
-      <c r="K38" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="L38" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="M38" s="30">
+      <c r="G38" s="57" t="s">
+        <v>197</v>
+      </c>
+      <c r="H38" s="57" t="s">
+        <v>197</v>
+      </c>
+      <c r="I38" s="57" t="s">
+        <v>197</v>
+      </c>
+      <c r="J38" s="57" t="s">
+        <v>197</v>
+      </c>
+      <c r="K38" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="L38" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="M38" s="24">
         <f>Таблица1[[#This Row],[wash time]]-Таблица1[[#This Row],[OGD time]]</f>
         <v>37.66869333333333</v>
       </c>
@@ -5661,54 +5999,58 @@
       <c r="P38" s="19">
         <v>42.554879999999997</v>
       </c>
-      <c r="R38" s="45">
+      <c r="R38" s="36">
         <v>42.411812079166701</v>
       </c>
-      <c r="S38" s="36" t="s">
+      <c r="S38" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="T38" s="23" t="s">
+      <c r="T38" s="89" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A39" s="77">
+      <c r="U38" s="81"/>
+      <c r="V38" s="81" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A39" s="67">
         <v>455</v>
       </c>
-      <c r="B39" s="74" t="s">
+      <c r="B39" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="C39" s="75">
+      <c r="C39" s="65">
         <v>4</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E39" s="48" t="s">
+      <c r="E39" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="F39" s="54" t="s">
+      <c r="F39" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="G39" s="67" t="s">
-        <v>197</v>
-      </c>
-      <c r="H39" s="67" t="s">
-        <v>197</v>
-      </c>
-      <c r="I39" s="67" t="s">
-        <v>197</v>
-      </c>
-      <c r="J39" s="67" t="s">
-        <v>197</v>
-      </c>
-      <c r="K39" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="L39" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="M39" s="30">
+      <c r="G39" s="57" t="s">
+        <v>197</v>
+      </c>
+      <c r="H39" s="57" t="s">
+        <v>197</v>
+      </c>
+      <c r="I39" s="57" t="s">
+        <v>197</v>
+      </c>
+      <c r="J39" s="57" t="s">
+        <v>197</v>
+      </c>
+      <c r="K39" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="L39" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="M39" s="24">
         <f>Таблица1[[#This Row],[wash time]]-Таблица1[[#This Row],[OGD time]]</f>
         <v>43.072000000000003</v>
       </c>
@@ -5719,54 +6061,58 @@
       <c r="P39" s="19">
         <v>48.138240000000003</v>
       </c>
-      <c r="R39" s="45">
+      <c r="R39" s="36">
         <v>48.744420562499997</v>
       </c>
-      <c r="S39" s="43" t="s">
+      <c r="S39" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="T39" s="24" t="s">
+      <c r="T39" s="90" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A40" s="77">
+      <c r="U39" s="81"/>
+      <c r="V39" s="81" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A40" s="67">
         <v>468</v>
       </c>
-      <c r="B40" s="74" t="s">
+      <c r="B40" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="C40" s="75">
+      <c r="C40" s="65">
         <v>6</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E40" s="48" t="s">
+      <c r="E40" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="F40" s="54" t="s">
+      <c r="F40" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="G40" s="67" t="s">
-        <v>197</v>
-      </c>
-      <c r="H40" s="67" t="s">
-        <v>197</v>
-      </c>
-      <c r="I40" s="67" t="s">
-        <v>197</v>
-      </c>
-      <c r="J40" s="67" t="s">
-        <v>197</v>
-      </c>
-      <c r="K40" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="L40" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="M40" s="30">
+      <c r="G40" s="57" t="s">
+        <v>197</v>
+      </c>
+      <c r="H40" s="57" t="s">
+        <v>197</v>
+      </c>
+      <c r="I40" s="57" t="s">
+        <v>197</v>
+      </c>
+      <c r="J40" s="57" t="s">
+        <v>197</v>
+      </c>
+      <c r="K40" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="L40" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="M40" s="24">
         <f>Таблица1[[#This Row],[wash time]]-Таблица1[[#This Row],[OGD time]]</f>
         <v>58.031786666666704</v>
       </c>
@@ -5777,54 +6123,58 @@
       <c r="P40" s="19">
         <v>70.737066666666706</v>
       </c>
-      <c r="R40" s="45">
+      <c r="R40" s="36">
         <v>56.66</v>
       </c>
-      <c r="S40" s="36" t="s">
+      <c r="S40" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="T40" s="23" t="s">
+      <c r="T40" s="89" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A41" s="77">
+      <c r="U40" s="81"/>
+      <c r="V40" s="81" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A41" s="67">
         <v>469</v>
       </c>
-      <c r="B41" s="74" t="s">
+      <c r="B41" s="64" t="s">
         <v>47</v>
       </c>
-      <c r="C41" s="75">
+      <c r="C41" s="65">
         <v>6</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E41" s="48" t="s">
+      <c r="E41" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="F41" s="54" t="s">
+      <c r="F41" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="G41" s="67" t="s">
-        <v>197</v>
-      </c>
-      <c r="H41" s="67" t="s">
-        <v>197</v>
-      </c>
-      <c r="I41" s="67" t="s">
-        <v>197</v>
-      </c>
-      <c r="J41" s="67" t="s">
-        <v>197</v>
-      </c>
-      <c r="K41" s="67" t="s">
-        <v>197</v>
-      </c>
-      <c r="L41" s="67" t="s">
-        <v>197</v>
-      </c>
-      <c r="M41" s="30">
+      <c r="G41" s="57" t="s">
+        <v>197</v>
+      </c>
+      <c r="H41" s="57" t="s">
+        <v>197</v>
+      </c>
+      <c r="I41" s="57" t="s">
+        <v>197</v>
+      </c>
+      <c r="J41" s="57" t="s">
+        <v>197</v>
+      </c>
+      <c r="K41" s="57" t="s">
+        <v>197</v>
+      </c>
+      <c r="L41" s="57" t="s">
+        <v>197</v>
+      </c>
+      <c r="M41" s="24">
         <f>Таблица1[[#This Row],[wash time]]-Таблица1[[#This Row],[OGD time]]</f>
         <v>41.556479999999965</v>
       </c>
@@ -5835,54 +6185,58 @@
       <c r="P41" s="19">
         <v>47.435093333333299</v>
       </c>
-      <c r="R41" s="45">
+      <c r="R41" s="36">
         <v>40.299999999999997</v>
       </c>
-      <c r="S41" s="44" t="s">
+      <c r="S41" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="T41" s="25" t="s">
+      <c r="T41" s="91" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A42" s="77">
+      <c r="U41" s="81"/>
+      <c r="V41" s="81" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A42" s="67">
         <v>470</v>
       </c>
-      <c r="B42" s="74" t="s">
+      <c r="B42" s="68" t="s">
         <v>48</v>
       </c>
-      <c r="C42" s="75">
+      <c r="C42" s="69">
         <v>6</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E42" s="48" t="s">
+      <c r="E42" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="F42" s="54" t="s">
+      <c r="F42" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="G42" s="67" t="s">
-        <v>197</v>
-      </c>
-      <c r="H42" s="67" t="s">
-        <v>197</v>
-      </c>
-      <c r="I42" s="67" t="s">
-        <v>197</v>
-      </c>
-      <c r="J42" s="67" t="s">
-        <v>197</v>
-      </c>
-      <c r="K42" s="67" t="s">
-        <v>197</v>
-      </c>
-      <c r="L42" s="67" t="s">
-        <v>197</v>
-      </c>
-      <c r="M42" s="30">
+      <c r="G42" s="57" t="s">
+        <v>197</v>
+      </c>
+      <c r="H42" s="57" t="s">
+        <v>197</v>
+      </c>
+      <c r="I42" s="57" t="s">
+        <v>197</v>
+      </c>
+      <c r="J42" s="57" t="s">
+        <v>197</v>
+      </c>
+      <c r="K42" s="57" t="s">
+        <v>197</v>
+      </c>
+      <c r="L42" s="57" t="s">
+        <v>197</v>
+      </c>
+      <c r="M42" s="24">
         <f>Таблица1[[#This Row],[wash time]]-Таблица1[[#This Row],[OGD time]]</f>
         <v>54.015146666666624</v>
       </c>
@@ -5893,54 +6247,58 @@
       <c r="P42" s="19">
         <v>62.879573333333298</v>
       </c>
-      <c r="R42" s="45">
+      <c r="R42" s="36">
         <v>55</v>
       </c>
-      <c r="S42" s="36" t="s">
+      <c r="S42" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="T42" s="23" t="s">
+      <c r="T42" s="89" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A43" s="77">
+      <c r="U42" s="81"/>
+      <c r="V42" s="81" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A43" s="67">
         <v>471</v>
       </c>
-      <c r="B43" s="74" t="s">
+      <c r="B43" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="C43" s="52">
+      <c r="C43" s="70">
         <v>5</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E43" s="48" t="s">
+      <c r="E43" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="F43" s="54" t="s">
+      <c r="F43" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="G43" s="67" t="s">
-        <v>197</v>
-      </c>
-      <c r="H43" s="67" t="s">
-        <v>197</v>
-      </c>
-      <c r="I43" s="67" t="s">
-        <v>197</v>
-      </c>
-      <c r="J43" s="67" t="s">
-        <v>197</v>
-      </c>
-      <c r="K43" s="67" t="s">
-        <v>197</v>
-      </c>
-      <c r="L43" s="67" t="s">
-        <v>197</v>
-      </c>
-      <c r="M43" s="30">
+      <c r="G43" s="57" t="s">
+        <v>197</v>
+      </c>
+      <c r="H43" s="57" t="s">
+        <v>197</v>
+      </c>
+      <c r="I43" s="57" t="s">
+        <v>197</v>
+      </c>
+      <c r="J43" s="57" t="s">
+        <v>197</v>
+      </c>
+      <c r="K43" s="57" t="s">
+        <v>197</v>
+      </c>
+      <c r="L43" s="57" t="s">
+        <v>197</v>
+      </c>
+      <c r="M43" s="24">
         <f>Таблица1[[#This Row],[wash time]]-Таблица1[[#This Row],[OGD time]]</f>
         <v>36.686506600000001</v>
       </c>
@@ -5951,720 +6309,1126 @@
       <c r="P43" s="19">
         <v>42.317653300000003</v>
       </c>
-      <c r="R43" s="45">
+      <c r="R43" s="36">
         <v>28.5</v>
       </c>
-      <c r="S43" s="36" t="s">
+      <c r="S43" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="T43" s="23" t="s">
+      <c r="T43" s="89" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A44" s="77">
+      <c r="U43" s="81"/>
+      <c r="V43" s="81" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A44" s="67">
         <v>474</v>
       </c>
-      <c r="B44" s="74" t="s">
+      <c r="B44" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="C44" s="52">
+      <c r="C44" s="70">
         <v>3</v>
       </c>
-      <c r="D44" s="55" t="s">
+      <c r="D44" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="E44" s="48" t="s">
+      <c r="E44" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="F44" s="54" t="s">
+      <c r="F44" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="G44" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="H44" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="I44" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="J44" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="K44" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="L44" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="M44" s="30">
+      <c r="G44" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="H44" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="I44" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="J44" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="K44" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="L44" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="M44" s="24">
         <f>Таблица1[[#This Row],[wash time]]-Таблица1[[#This Row],[OGD time]]</f>
         <v>45</v>
       </c>
-      <c r="N44" s="34"/>
-      <c r="O44" s="30">
+      <c r="N44" s="28"/>
+      <c r="O44" s="24">
         <v>10</v>
       </c>
-      <c r="P44" s="34">
+      <c r="P44" s="28">
         <v>55</v>
       </c>
-      <c r="R44" s="45"/>
-      <c r="S44" s="36"/>
-      <c r="T44" s="23" t="s">
+      <c r="R44" s="36"/>
+      <c r="S44" s="30"/>
+      <c r="T44" s="89" t="s">
         <v>74</v>
       </c>
-      <c r="U44" s="14">
+      <c r="U44" s="81"/>
+      <c r="V44" s="14">
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A45" s="77">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A45" s="67">
         <v>475</v>
       </c>
-      <c r="B45" s="74" t="s">
+      <c r="B45" s="68" t="s">
         <v>51</v>
       </c>
-      <c r="C45" s="52">
+      <c r="C45" s="70">
         <v>3</v>
       </c>
-      <c r="D45" s="55" t="s">
+      <c r="D45" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="E45" s="48" t="s">
+      <c r="E45" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="F45" s="54" t="s">
+      <c r="F45" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="G45" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="H45" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="I45" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="J45" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="K45" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="L45" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="M45" s="30">
+      <c r="G45" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="H45" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="I45" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="J45" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="K45" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="L45" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="M45" s="24">
         <f>Таблица1[[#This Row],[wash time]]-Таблица1[[#This Row],[OGD time]]</f>
         <v>69</v>
       </c>
-      <c r="N45" s="30"/>
-      <c r="O45" s="30">
+      <c r="N45" s="24"/>
+      <c r="O45" s="24">
         <v>11</v>
       </c>
-      <c r="P45" s="30">
+      <c r="P45" s="24">
         <v>80</v>
       </c>
-      <c r="R45" s="45"/>
-      <c r="S45" s="46"/>
-      <c r="T45" s="23" t="s">
+      <c r="R45" s="36"/>
+      <c r="S45" s="37"/>
+      <c r="T45" s="89" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A46" s="77">
+      <c r="U45" s="81"/>
+      <c r="V45" s="81" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A46" s="67">
         <v>476</v>
       </c>
-      <c r="B46" s="74" t="s">
+      <c r="B46" s="68" t="s">
         <v>52</v>
       </c>
-      <c r="C46" s="53">
+      <c r="C46" s="71">
         <v>3</v>
       </c>
-      <c r="D46" s="55" t="s">
+      <c r="D46" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="E46" s="50" t="s">
-        <v>17</v>
-      </c>
-      <c r="F46" s="54" t="s">
+      <c r="E46" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="F46" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="G46" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="H46" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="I46" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="J46" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="K46" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="L46" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="M46" s="30">
+      <c r="G46" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="H46" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="I46" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="J46" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="K46" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="L46" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="M46" s="24">
         <f>Таблица1[[#This Row],[wash time]]-Таблица1[[#This Row],[OGD time]]</f>
         <v>74</v>
       </c>
-      <c r="N46" s="30"/>
-      <c r="O46" s="30">
+      <c r="N46" s="24"/>
+      <c r="O46" s="24">
         <v>10</v>
       </c>
-      <c r="P46" s="30">
+      <c r="P46" s="24">
         <v>84</v>
       </c>
-      <c r="R46" s="45"/>
-      <c r="S46" s="47"/>
-      <c r="T46" s="26" t="s">
+      <c r="R46" s="36"/>
+      <c r="S46" s="38"/>
+      <c r="T46" s="92" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U46" s="81"/>
+      <c r="V46" s="81" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A47" s="13">
         <v>477</v>
       </c>
       <c r="B47" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C47" s="28">
+      <c r="C47" s="22">
         <v>3</v>
       </c>
-      <c r="D47" s="55" t="s">
+      <c r="D47" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="E47" s="50" t="s">
-        <v>17</v>
-      </c>
-      <c r="F47" s="58" t="s">
+      <c r="E47" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="F47" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="G47" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="H47" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="I47" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="J47" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="K47" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="L47" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="M47" s="35">
+      <c r="G47" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="H47" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="I47" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="J47" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="K47" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="L47" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="M47" s="29">
         <f>Таблица1[[#This Row],[wash time]]-Таблица1[[#This Row],[OGD time]]</f>
         <v>112</v>
       </c>
-      <c r="N47" s="30"/>
-      <c r="O47" s="30">
+      <c r="N47" s="24"/>
+      <c r="O47" s="24">
         <v>10</v>
       </c>
-      <c r="P47" s="30">
+      <c r="P47" s="24">
         <v>122</v>
       </c>
-      <c r="R47" s="45"/>
-      <c r="S47" s="27"/>
-      <c r="T47" s="27" t="s">
+      <c r="R47" s="36"/>
+      <c r="S47" s="21"/>
+      <c r="T47" s="93" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U47" s="81"/>
+      <c r="V47" s="81" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A48" s="13">
         <v>478</v>
       </c>
       <c r="B48" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C48" s="28">
+      <c r="C48" s="22">
         <v>4</v>
       </c>
-      <c r="D48" s="55" t="s">
+      <c r="D48" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="E48" s="50" t="s">
-        <v>17</v>
-      </c>
-      <c r="F48" s="58" t="s">
+      <c r="E48" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="F48" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="G48" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="H48" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="I48" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="J48" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="K48" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="L48" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="M48" s="30">
+      <c r="G48" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="H48" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="I48" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="J48" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="K48" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="L48" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="M48" s="24">
         <f>Таблица1[[#This Row],[wash time]]-Таблица1[[#This Row],[OGD time]]</f>
         <v>94.5</v>
       </c>
-      <c r="N48" s="30"/>
-      <c r="O48" s="30">
+      <c r="N48" s="24"/>
+      <c r="O48" s="24">
         <v>9.5</v>
       </c>
-      <c r="P48" s="30">
+      <c r="P48" s="24">
         <v>104</v>
       </c>
-      <c r="R48" s="45"/>
-      <c r="S48" s="27"/>
-      <c r="T48" s="27" t="s">
+      <c r="R48" s="36"/>
+      <c r="S48" s="21"/>
+      <c r="T48" s="93" t="s">
         <v>18</v>
       </c>
-      <c r="U48" s="14">
+      <c r="U48" s="81"/>
+      <c r="V48" s="14">
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A49" s="13">
         <v>479</v>
       </c>
       <c r="B49" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C49" s="28">
+      <c r="C49" s="22">
         <v>4</v>
       </c>
-      <c r="D49" s="55" t="s">
+      <c r="D49" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="E49" s="50" t="s">
-        <v>17</v>
-      </c>
-      <c r="F49" s="58" t="s">
+      <c r="E49" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="F49" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="G49" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="H49" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="I49" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="J49" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="K49" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="L49" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="M49" s="30">
+      <c r="G49" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="H49" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="I49" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="J49" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="K49" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="L49" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="M49" s="24">
         <f>Таблица1[[#This Row],[wash time]]-Таблица1[[#This Row],[OGD time]]</f>
         <v>64</v>
       </c>
-      <c r="N49" s="30"/>
-      <c r="O49" s="30">
+      <c r="N49" s="24"/>
+      <c r="O49" s="24">
         <v>10</v>
       </c>
-      <c r="P49" s="30">
+      <c r="P49" s="24">
         <v>74</v>
       </c>
-      <c r="R49" s="45"/>
-      <c r="S49" s="27"/>
-      <c r="T49" s="27" t="s">
+      <c r="R49" s="36"/>
+      <c r="S49" s="21"/>
+      <c r="T49" s="93" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U49" s="81"/>
+      <c r="V49" s="81" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A50" s="13">
         <v>480</v>
       </c>
       <c r="B50" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C50" s="28">
+      <c r="C50" s="22">
         <v>4</v>
       </c>
-      <c r="D50" s="55" t="s">
+      <c r="D50" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="E50" s="50" t="s">
-        <v>17</v>
-      </c>
-      <c r="F50" s="58" t="s">
+      <c r="E50" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="F50" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="G50" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="H50" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="I50" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="J50" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="K50" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="L50" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="M50" s="30">
+      <c r="G50" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="H50" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="I50" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="J50" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="K50" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="L50" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="M50" s="24">
         <f>Таблица1[[#This Row],[wash time]]-Таблица1[[#This Row],[OGD time]]</f>
         <v>72.5</v>
       </c>
-      <c r="N50" s="30"/>
-      <c r="O50" s="30">
+      <c r="N50" s="24"/>
+      <c r="O50" s="24">
         <v>9.5</v>
       </c>
-      <c r="P50" s="30">
+      <c r="P50" s="24">
         <v>82</v>
       </c>
-      <c r="R50" s="45"/>
-      <c r="S50" s="27"/>
-      <c r="T50" s="27" t="s">
+      <c r="R50" s="36"/>
+      <c r="S50" s="21"/>
+      <c r="T50" s="93" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U50" s="81"/>
+      <c r="V50" s="81" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A51" s="13">
         <v>481</v>
       </c>
       <c r="B51" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C51" s="28">
+      <c r="C51" s="22">
         <v>5</v>
       </c>
-      <c r="D51" s="55" t="s">
+      <c r="D51" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="E51" s="50" t="s">
-        <v>17</v>
-      </c>
-      <c r="F51" s="58" t="s">
+      <c r="E51" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="F51" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="G51" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="H51" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="I51" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="J51" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="K51" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="L51" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="M51" s="30">
+      <c r="G51" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="H51" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="I51" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="J51" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="K51" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="L51" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="M51" s="24">
         <f>Таблица1[[#This Row],[wash time]]-Таблица1[[#This Row],[OGD time]]</f>
         <v>22</v>
       </c>
-      <c r="N51" s="30"/>
-      <c r="O51" s="30">
+      <c r="N51" s="24"/>
+      <c r="O51" s="24">
         <v>10</v>
       </c>
-      <c r="P51" s="30">
+      <c r="P51" s="24">
         <v>32</v>
       </c>
-      <c r="R51" s="45"/>
-      <c r="S51" s="27"/>
-      <c r="T51" s="27" t="s">
+      <c r="R51" s="36"/>
+      <c r="S51" s="21"/>
+      <c r="T51" s="93" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U51" s="81"/>
+      <c r="V51" s="81" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A52" s="13">
         <v>482</v>
       </c>
       <c r="B52" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C52" s="28">
+      <c r="C52" s="22">
         <v>5</v>
       </c>
-      <c r="D52" s="55" t="s">
+      <c r="D52" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="E52" s="50" t="s">
-        <v>17</v>
-      </c>
-      <c r="F52" s="58" t="s">
+      <c r="E52" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="F52" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="G52" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="H52" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="I52" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="J52" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="K52" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="L52" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="M52" s="30">
+      <c r="G52" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="H52" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="I52" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="J52" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="K52" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="L52" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="M52" s="24">
         <f>Таблица1[[#This Row],[wash time]]-Таблица1[[#This Row],[OGD time]]</f>
         <v>25</v>
       </c>
-      <c r="N52" s="30"/>
-      <c r="O52" s="30">
+      <c r="N52" s="24"/>
+      <c r="O52" s="24">
         <v>13</v>
       </c>
-      <c r="P52" s="30">
+      <c r="P52" s="24">
         <v>38</v>
       </c>
-      <c r="R52" s="45"/>
-      <c r="S52" s="27"/>
-      <c r="T52" s="27" t="s">
+      <c r="R52" s="36"/>
+      <c r="S52" s="21"/>
+      <c r="T52" s="93" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U52" s="81"/>
+      <c r="V52" s="81" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A53" s="13">
         <v>483</v>
       </c>
       <c r="B53" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C53" s="28">
+      <c r="C53" s="22">
         <v>5</v>
       </c>
-      <c r="D53" s="55" t="s">
+      <c r="D53" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="E53" s="50" t="s">
-        <v>17</v>
-      </c>
-      <c r="F53" s="58" t="s">
+      <c r="E53" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="F53" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="G53" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="H53" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="I53" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="J53" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="K53" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="L53" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="M53" s="30">
+      <c r="G53" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="H53" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="I53" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="J53" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="K53" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="L53" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="M53" s="24">
         <f>Таблица1[[#This Row],[wash time]]-Таблица1[[#This Row],[OGD time]]</f>
         <v>23</v>
       </c>
-      <c r="N53" s="30"/>
-      <c r="O53" s="30">
+      <c r="N53" s="24"/>
+      <c r="O53" s="24">
         <v>10</v>
       </c>
-      <c r="P53" s="30">
+      <c r="P53" s="24">
         <v>33</v>
       </c>
-      <c r="R53" s="45"/>
-      <c r="S53" s="27"/>
-      <c r="T53" s="27" t="s">
+      <c r="R53" s="36"/>
+      <c r="S53" s="21"/>
+      <c r="T53" s="93" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="56" spans="1:20" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="B56" s="59" t="s">
+      <c r="U53" s="81"/>
+      <c r="V53" s="81" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A54" s="13">
+        <v>484</v>
+      </c>
+      <c r="B54" s="72" t="s">
+        <v>199</v>
+      </c>
+      <c r="C54" s="70">
+        <v>8</v>
+      </c>
+      <c r="D54" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="E54" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="F54" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="G54" s="73"/>
+      <c r="H54" s="73"/>
+      <c r="I54" s="73"/>
+      <c r="J54" s="73"/>
+      <c r="K54" s="73"/>
+      <c r="L54" s="73"/>
+      <c r="M54" s="24"/>
+      <c r="N54" s="24"/>
+      <c r="O54" s="74"/>
+      <c r="P54" s="74"/>
+      <c r="Q54" s="74"/>
+      <c r="R54" s="75"/>
+      <c r="S54" s="21"/>
+      <c r="T54" s="94" t="s">
+        <v>201</v>
+      </c>
+      <c r="U54" s="83" t="s">
+        <v>215</v>
+      </c>
+      <c r="V54" s="81" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A55" s="13">
+        <v>485</v>
+      </c>
+      <c r="B55" s="72" t="s">
+        <v>198</v>
+      </c>
+      <c r="C55" s="70">
+        <v>8</v>
+      </c>
+      <c r="D55" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="E55" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="F55" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="G55" s="73"/>
+      <c r="H55" s="73"/>
+      <c r="I55" s="73"/>
+      <c r="J55" s="73"/>
+      <c r="K55" s="73"/>
+      <c r="L55" s="73"/>
+      <c r="M55" s="24"/>
+      <c r="N55" s="24"/>
+      <c r="O55" s="74"/>
+      <c r="P55" s="74"/>
+      <c r="Q55" s="74"/>
+      <c r="R55" s="75"/>
+      <c r="S55" s="21"/>
+      <c r="T55" s="94" t="s">
+        <v>200</v>
+      </c>
+      <c r="U55" s="83" t="s">
+        <v>216</v>
+      </c>
+      <c r="V55" s="81" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A56" s="13">
+        <v>486</v>
+      </c>
+      <c r="B56" s="76" t="s">
+        <v>204</v>
+      </c>
+      <c r="C56" s="70">
+        <v>8</v>
+      </c>
+      <c r="D56" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="E56" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="F56" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="G56" s="73"/>
+      <c r="H56" s="73"/>
+      <c r="I56" s="73"/>
+      <c r="J56" s="73"/>
+      <c r="K56" s="73"/>
+      <c r="L56" s="73"/>
+      <c r="M56" s="24"/>
+      <c r="N56" s="24"/>
+      <c r="O56" s="74"/>
+      <c r="P56" s="74"/>
+      <c r="Q56" s="74"/>
+      <c r="R56" s="75"/>
+      <c r="S56" s="21"/>
+      <c r="T56" s="95" t="s">
+        <v>202</v>
+      </c>
+      <c r="U56" s="97" t="s">
+        <v>218</v>
+      </c>
+      <c r="V56" s="81" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A57" s="13">
+        <v>487</v>
+      </c>
+      <c r="B57" s="76" t="s">
+        <v>205</v>
+      </c>
+      <c r="C57" s="70">
+        <v>8</v>
+      </c>
+      <c r="D57" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="E57" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="F57" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="G57" s="73"/>
+      <c r="H57" s="73"/>
+      <c r="I57" s="73"/>
+      <c r="J57" s="73"/>
+      <c r="K57" s="73"/>
+      <c r="L57" s="73"/>
+      <c r="M57" s="24"/>
+      <c r="N57" s="24"/>
+      <c r="O57" s="74"/>
+      <c r="P57" s="74"/>
+      <c r="Q57" s="74"/>
+      <c r="R57" s="75"/>
+      <c r="S57" s="21"/>
+      <c r="T57" s="95" t="s">
+        <v>203</v>
+      </c>
+      <c r="U57" s="98" t="s">
+        <v>217</v>
+      </c>
+      <c r="V57" s="81" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="13">
+        <v>488</v>
+      </c>
+      <c r="B58" s="76" t="s">
+        <v>209</v>
+      </c>
+      <c r="C58" s="70">
+        <v>8</v>
+      </c>
+      <c r="D58" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="E58" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="F58" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="G58" s="73"/>
+      <c r="H58" s="73"/>
+      <c r="I58" s="73"/>
+      <c r="J58" s="73"/>
+      <c r="K58" s="73"/>
+      <c r="L58" s="73"/>
+      <c r="M58" s="24"/>
+      <c r="N58" s="24"/>
+      <c r="O58" s="28"/>
+      <c r="P58" s="28"/>
+      <c r="Q58" s="28"/>
+      <c r="R58" s="79"/>
+      <c r="S58" s="21"/>
+      <c r="T58" s="93" t="s">
+        <v>206</v>
+      </c>
+      <c r="U58" s="82" t="s">
+        <v>219</v>
+      </c>
+      <c r="V58" s="81" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="13">
+        <v>489</v>
+      </c>
+      <c r="B59" s="76" t="s">
+        <v>210</v>
+      </c>
+      <c r="C59" s="70">
+        <v>8</v>
+      </c>
+      <c r="D59" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="E59" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="F59" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="G59" s="73"/>
+      <c r="H59" s="73"/>
+      <c r="I59" s="73"/>
+      <c r="J59" s="73"/>
+      <c r="K59" s="73"/>
+      <c r="L59" s="73"/>
+      <c r="M59" s="24"/>
+      <c r="N59" s="24"/>
+      <c r="O59" s="28"/>
+      <c r="P59" s="28"/>
+      <c r="Q59" s="28"/>
+      <c r="R59" s="79"/>
+      <c r="S59" s="21"/>
+      <c r="T59" s="93" t="s">
+        <v>207</v>
+      </c>
+      <c r="U59" s="82" t="s">
+        <v>220</v>
+      </c>
+      <c r="V59" s="81" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="13">
+        <v>490</v>
+      </c>
+      <c r="B60" s="76" t="s">
+        <v>211</v>
+      </c>
+      <c r="C60" s="70">
+        <v>8</v>
+      </c>
+      <c r="D60" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="E60" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="F60" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="G60" s="73"/>
+      <c r="H60" s="73"/>
+      <c r="I60" s="73"/>
+      <c r="J60" s="73"/>
+      <c r="K60" s="73"/>
+      <c r="L60" s="73"/>
+      <c r="M60" s="24"/>
+      <c r="N60" s="24"/>
+      <c r="O60" s="77"/>
+      <c r="P60" s="77"/>
+      <c r="Q60" s="77"/>
+      <c r="R60" s="80"/>
+      <c r="S60" s="78"/>
+      <c r="T60" s="96" t="s">
+        <v>208</v>
+      </c>
+      <c r="U60" s="82" t="s">
+        <v>221</v>
+      </c>
+      <c r="V60" s="81" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W61" s="14"/>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W62" s="14"/>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W63" s="14"/>
+    </row>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W64" s="14"/>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="W65" s="14"/>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="W66" s="14"/>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="W67" s="14"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="W68" s="14"/>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="W69" s="14"/>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="W70" s="14"/>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="W71" s="14"/>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="W72" s="14"/>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="W73" s="14"/>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="W74" s="14"/>
+    </row>
+    <row r="75" spans="2:23" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="B75" s="49" t="s">
         <v>190</v>
       </c>
-      <c r="C56" s="59" t="s">
+      <c r="C75" s="49" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="57" spans="1:20" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="B57" s="60">
+      <c r="W75" s="14"/>
+    </row>
+    <row r="76" spans="2:23" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="B76" s="50">
         <v>2</v>
       </c>
-      <c r="C57" s="60">
-        <f>COUNTIF(Таблица1[age],B57)</f>
+      <c r="C76" s="50">
+        <f>COUNTIF(Таблица1[age],B76)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="58" spans="1:20" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="B58" s="60">
+      <c r="W76" s="14"/>
+    </row>
+    <row r="77" spans="2:23" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="B77" s="50">
         <v>3</v>
       </c>
-      <c r="C58" s="60">
-        <f>COUNTIF(Таблица1[age],B58)</f>
+      <c r="C77" s="50">
+        <f>COUNTIF(Таблица1[age],B77)</f>
         <v>12</v>
       </c>
-    </row>
-    <row r="59" spans="1:20" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="B59" s="60">
+      <c r="W77" s="14"/>
+    </row>
+    <row r="78" spans="2:23" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="B78" s="50">
         <v>4</v>
       </c>
-      <c r="C59" s="60">
-        <f>COUNTIF(Таблица1[age],B59)</f>
+      <c r="C78" s="50">
+        <f>COUNTIF(Таблица1[age],B78)</f>
         <v>13</v>
       </c>
-    </row>
-    <row r="60" spans="1:20" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="B60" s="60">
+      <c r="W78" s="14"/>
+    </row>
+    <row r="79" spans="2:23" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="B79" s="50">
         <v>5</v>
       </c>
-      <c r="C60" s="60">
-        <f>COUNTIF(Таблица1[age],B60)</f>
+      <c r="C79" s="50">
+        <f>COUNTIF(Таблица1[age],B79)</f>
         <v>12</v>
       </c>
-    </row>
-    <row r="61" spans="1:20" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="B61" s="60">
+      <c r="W79" s="14"/>
+    </row>
+    <row r="80" spans="2:23" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="B80" s="50">
         <v>6</v>
       </c>
-      <c r="C61" s="60">
-        <f>COUNTIF(Таблица1[age],B61)</f>
+      <c r="C80" s="50">
+        <f>COUNTIF(Таблица1[age],B80)</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="62" spans="1:20" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="B62" s="60">
+      <c r="W80" s="14"/>
+    </row>
+    <row r="81" spans="2:23" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="B81" s="50">
         <v>7</v>
       </c>
-      <c r="C62" s="60">
-        <f>COUNTIF(Таблица1[age],B62)</f>
+      <c r="C81" s="50">
+        <f>COUNTIF(Таблица1[age],B81)</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="1:20" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="B63" s="60">
+      <c r="W81" s="14"/>
+    </row>
+    <row r="82" spans="2:23" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="B82" s="50">
         <v>8</v>
       </c>
-      <c r="C63" s="60">
-        <f>COUNTIF(Таблица1[age],B63)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:20" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="B64" s="59"/>
-      <c r="C64" s="59"/>
-    </row>
-    <row r="65" spans="2:3" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="B65" s="59" t="s">
+      <c r="C82" s="50">
+        <f>COUNTIF(Таблица1[age],B82)</f>
+        <v>10</v>
+      </c>
+      <c r="W82" s="14"/>
+    </row>
+    <row r="83" spans="2:23" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="B83" s="49"/>
+      <c r="C83" s="49"/>
+      <c r="W83" s="14"/>
+    </row>
+    <row r="84" spans="2:23" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="B84" s="49" t="s">
         <v>186</v>
       </c>
-      <c r="C65" s="59" t="s">
+      <c r="C84" s="49" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="66" spans="2:3" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="B66" s="61" t="s">
+      <c r="W84" s="14"/>
+    </row>
+    <row r="85" spans="2:23" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="B85" s="51" t="s">
         <v>185</v>
       </c>
-      <c r="C66" s="61">
+      <c r="C85" s="51">
         <f>COUNTIF(Таблица1[type],"OGD till 2019.")</f>
         <v>28</v>
       </c>
-    </row>
-    <row r="67" spans="2:3" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="B67" s="62" t="s">
+      <c r="W85" s="14"/>
+    </row>
+    <row r="86" spans="2:23" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="B86" s="52" t="s">
         <v>189</v>
       </c>
-      <c r="C67" s="62">
+      <c r="C86" s="52">
         <f>COUNTIF(Таблица1[type],"OGD")</f>
         <v>12</v>
       </c>
-    </row>
-    <row r="68" spans="2:3" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="B68" s="63" t="s">
+      <c r="W86" s="14"/>
+    </row>
+    <row r="87" spans="2:23" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="B87" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="C68" s="63">
+      <c r="C87" s="53">
         <f>COUNTIF(Таблица1[type],"OIS only")</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="69" spans="2:3" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="B69" s="59"/>
-      <c r="C69" s="59"/>
-    </row>
-    <row r="70" spans="2:3" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="B70" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="W87" s="14"/>
+    </row>
+    <row r="88" spans="2:23" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="B88" s="49"/>
+      <c r="C88" s="49"/>
+      <c r="W88" s="14"/>
+    </row>
+    <row r="89" spans="2:23" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="B89" s="49" t="s">
         <v>191</v>
       </c>
-      <c r="C70" s="59" t="s">
+      <c r="C89" s="49" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="71" spans="2:3" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="B71" s="64" t="s">
+      <c r="W89" s="14"/>
+    </row>
+    <row r="90" spans="2:23" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="B90" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="C71" s="64">
+      <c r="C90" s="54">
         <f>COUNTIF(Таблица1[[#All],[holder]], Таблица6[[#This Row],[type of slice holder]])</f>
         <v>42</v>
       </c>
-    </row>
-    <row r="72" spans="2:3" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="B72" s="65" t="s">
+      <c r="W90" s="14"/>
+    </row>
+    <row r="91" spans="2:23" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="B91" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="C72" s="65">
+      <c r="C91" s="55">
         <f>COUNTIF(Таблица1[[#All],[holder]], Таблица6[[#This Row],[type of slice holder]])</f>
-        <v>8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="W91" s="14"/>
+    </row>
+    <row r="92" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="W92" s="14"/>
+    </row>
+    <row r="93" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="W93" s="14"/>
+    </row>
+    <row r="94" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="W94" s="14"/>
+    </row>
+    <row r="95" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="W95" s="14"/>
+    </row>
+    <row r="96" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="W96" s="14"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="G78:L1048576 G55:L72 G3:L53">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G4:L53">
+  <conditionalFormatting sqref="G4:L60">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
         <color theme="0"/>
         <color theme="9"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G96:L1048576 G75:L91 G3:L60">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -6733,16 +7497,19 @@
     <hyperlink ref="T28" r:id="rId62"/>
     <hyperlink ref="S31" r:id="rId63"/>
     <hyperlink ref="T31" r:id="rId64"/>
+    <hyperlink ref="U54" r:id="rId65"/>
+    <hyperlink ref="U56" r:id="rId66"/>
+    <hyperlink ref="U57" r:id="rId67"/>
   </hyperlinks>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="50" orientation="portrait" r:id="rId65"/>
-  <drawing r:id="rId66"/>
-  <legacyDrawing r:id="rId67"/>
+  <pageSetup paperSize="9" scale="50" orientation="portrait" r:id="rId68"/>
+  <drawing r:id="rId69"/>
+  <legacyDrawing r:id="rId70"/>
   <tableParts count="4">
-    <tablePart r:id="rId68"/>
-    <tablePart r:id="rId69"/>
-    <tablePart r:id="rId70"/>
     <tablePart r:id="rId71"/>
+    <tablePart r:id="rId72"/>
+    <tablePart r:id="rId73"/>
+    <tablePart r:id="rId74"/>
   </tableParts>
 </worksheet>
 </file>

--- a/Results/CompatationList_YG.xlsx
+++ b/Results/CompatationList_YG.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22992" windowHeight="9324"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22992" windowHeight="9324"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -1317,96 +1317,6 @@
   <dxfs count="38">
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD7D7D7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1638,6 +1548,74 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1983,11 +1961,33 @@
       </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="5"/>
-      <tableStyleElement type="headerRow" dxfId="4"/>
+      <tableStyleElement type="wholeTable" dxfId="37"/>
+      <tableStyleElement type="headerRow" dxfId="36"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -2027,7 +2027,6 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2446,11 +2445,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="360068856"/>
-        <c:axId val="360073560"/>
+        <c:axId val="400119448"/>
+        <c:axId val="400113176"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="360068856"/>
+        <c:axId val="400119448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2496,7 +2495,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2563,12 +2561,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="360073560"/>
+        <c:crossAx val="400113176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="360073560"/>
+        <c:axId val="400113176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2625,7 +2623,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="360068856"/>
+        <c:crossAx val="400119448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3266,7 +3264,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A3:V60" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A3:V60" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
   <autoFilter ref="A3:V60">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -3291,46 +3289,46 @@
     <filterColumn colId="20" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="22">
-    <tableColumn id="1" name="id" dataDxfId="35"/>
-    <tableColumn id="2" name="name" dataDxfId="34"/>
-    <tableColumn id="3" name="age" dataDxfId="33"/>
-    <tableColumn id="4" name="type" dataDxfId="32" dataCellStyle="40% — акцент5"/>
-    <tableColumn id="15" name="holder" dataDxfId="31" dataCellStyle="40% — акцент5"/>
-    <tableColumn id="7" name="OIS type" dataDxfId="30"/>
-    <tableColumn id="12" name="cell data avaliable" dataDxfId="29"/>
-    <tableColumn id="18" name="cell steps enable" dataDxfId="28"/>
-    <tableColumn id="13" name="LFP data avaliable" dataDxfId="27"/>
-    <tableColumn id="19" name="LFP stimuli enable" dataDxfId="26"/>
-    <tableColumn id="20" name="tissue resistance avaliable" dataDxfId="25"/>
-    <tableColumn id="14" name="synchronized steps and stimuli" dataDxfId="24"/>
-    <tableColumn id="10" name="OGD length, minutes" dataDxfId="23">
+    <tableColumn id="1" name="id" dataDxfId="33"/>
+    <tableColumn id="2" name="name" dataDxfId="32"/>
+    <tableColumn id="3" name="age" dataDxfId="31"/>
+    <tableColumn id="4" name="type" dataDxfId="30" dataCellStyle="40% — акцент5"/>
+    <tableColumn id="15" name="holder" dataDxfId="29" dataCellStyle="40% — акцент5"/>
+    <tableColumn id="7" name="OIS type" dataDxfId="28"/>
+    <tableColumn id="12" name="cell data avaliable" dataDxfId="27"/>
+    <tableColumn id="18" name="cell steps enable" dataDxfId="26"/>
+    <tableColumn id="13" name="LFP data avaliable" dataDxfId="25"/>
+    <tableColumn id="19" name="LFP stimuli enable" dataDxfId="24"/>
+    <tableColumn id="20" name="tissue resistance avaliable" dataDxfId="23"/>
+    <tableColumn id="14" name="synchronized steps and stimuli" dataDxfId="22"/>
+    <tableColumn id="10" name="OGD length, minutes" dataDxfId="21">
       <calculatedColumnFormula>Таблица1[[#This Row],[wash time]]-Таблица1[[#This Row],[OGD time]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" name="AD delay" dataDxfId="22">
+    <tableColumn id="21" name="AD delay" dataDxfId="20">
       <calculatedColumnFormula>Таблица1[[#This Row],[AD time]]-Таблица1[[#This Row],[OGD time]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="OGD time" dataDxfId="21"/>
-    <tableColumn id="9" name="wash time" dataDxfId="20"/>
-    <tableColumn id="16" name="AD time" dataDxfId="19"/>
-    <tableColumn id="17" name="SD time" dataDxfId="18"/>
-    <tableColumn id="5" name="abf data file" dataDxfId="2"/>
-    <tableColumn id="6" name="OIS data file" dataDxfId="0"/>
-    <tableColumn id="11" name="ttc photo file" dataDxfId="1"/>
-    <tableColumn id="22" name="wash length, minutes" dataDxfId="3"/>
+    <tableColumn id="8" name="OGD time" dataDxfId="19"/>
+    <tableColumn id="9" name="wash time" dataDxfId="18"/>
+    <tableColumn id="16" name="AD time" dataDxfId="17"/>
+    <tableColumn id="17" name="SD time" dataDxfId="16"/>
+    <tableColumn id="5" name="abf data file" dataDxfId="15"/>
+    <tableColumn id="6" name="OIS data file" dataDxfId="14"/>
+    <tableColumn id="11" name="ttc photo file" dataDxfId="13"/>
+    <tableColumn id="22" name="wash length, minutes" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="B75:C82" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="B75:C82" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <autoFilter ref="B75:C82">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" name="Days after birth (P…)" dataDxfId="15"/>
-    <tableColumn id="2" name="number" dataDxfId="14">
+    <tableColumn id="1" name="Days after birth (P…)" dataDxfId="9"/>
+    <tableColumn id="2" name="number" dataDxfId="8">
       <calculatedColumnFormula>COUNTIF(Таблица1[age],B76)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3339,28 +3337,28 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Таблица3" displayName="Таблица3" ref="B84:C87" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Таблица3" displayName="Таблица3" ref="B84:C87" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="B84:C87">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" name="type of experiment" dataDxfId="11"/>
-    <tableColumn id="2" name="number" dataDxfId="10"/>
+    <tableColumn id="1" name="type of experiment" dataDxfId="5"/>
+    <tableColumn id="2" name="number" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Таблица6" displayName="Таблица6" ref="B89:C91" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Таблица6" displayName="Таблица6" ref="B89:C91" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
   <autoFilter ref="B89:C91">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" name="type of slice holder" dataDxfId="7"/>
-    <tableColumn id="2" name="number" dataDxfId="6">
+    <tableColumn id="1" name="type of slice holder" dataDxfId="1"/>
+    <tableColumn id="2" name="number" dataDxfId="0">
       <calculatedColumnFormula>COUNTIF(Таблица1[[#All],[holder]], Таблица6[[#This Row],[type of slice holder]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3633,8 +3631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60"/>
+    <sheetView tabSelected="1" topLeftCell="I16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="R31" sqref="R31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4438,7 +4436,7 @@
       </c>
       <c r="N14" s="24">
         <f>Таблица1[[#This Row],[AD time]]-Таблица1[[#This Row],[OGD time]]</f>
-        <v>65.427199999999999</v>
+        <v>32.909999999999997</v>
       </c>
       <c r="O14" s="24">
         <v>5.09</v>
@@ -4447,9 +4445,12 @@
         <v>70.517200000000003</v>
       </c>
       <c r="Q14" s="24">
-        <v>70.517200000000003</v>
-      </c>
-      <c r="R14" s="36"/>
+        <v>38</v>
+      </c>
+      <c r="R14" s="36">
+        <f>Таблица1[[#This Row],[wash time]]-Таблица1[[#This Row],[AD time]]</f>
+        <v>32.517200000000003</v>
+      </c>
       <c r="S14" s="30" t="s">
         <v>144</v>
       </c>
@@ -5505,7 +5506,10 @@
       <c r="Q30" s="31">
         <v>24.924399999999999</v>
       </c>
-      <c r="R30" s="36"/>
+      <c r="R30" s="36">
+        <f>Таблица1[[#This Row],[wash time]]-Таблица1[[#This Row],[AD time]]</f>
+        <v>14.964800000000004</v>
+      </c>
       <c r="S30" s="33" t="s">
         <v>178</v>
       </c>
